--- a/Grid_5x5/Solutions/Solution_NDP_S006/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S006/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2585,7 +2585,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>20.779461196090729</v>
+        <v>20.779461196090725</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2605,7 +2605,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>21.255832432588608</v>
+        <v>21.255832432588605</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2646,7 +2646,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.91484404761904725</v>
+        <v>0.9148440476190477</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8598,13 +8598,13 @@
         <v>15.504</v>
       </c>
       <c r="L22" s="72">
-        <v>122.973</v>
+        <v>122.97300000000003</v>
       </c>
       <c r="M22" s="72">
         <v>38.256</v>
       </c>
       <c r="N22" s="72">
-        <v>138.477</v>
+        <v>138.47700000000003</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="72">
-        <v>138.477</v>
+        <v>138.47700000000003</v>
       </c>
       <c r="N23" s="72">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>70</v>
       </c>
       <c r="K28" s="72">
-        <v>36.967999999999996</v>
+        <v>36.968000000000004</v>
       </c>
       <c r="L28" s="72">
-        <v>72.568000000000012</v>
+        <v>72.567999999999998</v>
       </c>
       <c r="M28" s="72">
         <v>103.995</v>
@@ -8938,13 +8938,13 @@
         <v>11.325000000000001</v>
       </c>
       <c r="L30" s="72">
-        <v>111.69699999999997</v>
+        <v>111.697</v>
       </c>
       <c r="M30" s="72">
         <v>27.39</v>
       </c>
       <c r="N30" s="72">
-        <v>123.02199999999998</v>
+        <v>123.02200000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8985,7 +8985,7 @@
         <v>94.885999999999996</v>
       </c>
       <c r="M31" s="72">
-        <v>28.135999999999999</v>
+        <v>28.135999999999996</v>
       </c>
       <c r="N31" s="72">
         <v>108.089</v>
@@ -9102,13 +9102,13 @@
         <v>32.581000000000003</v>
       </c>
       <c r="L34" s="72">
-        <v>130.27100000000002</v>
+        <v>130.27099999999996</v>
       </c>
       <c r="M34" s="72">
         <v>8.8870000000000005</v>
       </c>
       <c r="N34" s="72">
-        <v>162.85200000000003</v>
+        <v>162.85199999999998</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -9146,13 +9146,13 @@
         <v>27.826000000000001</v>
       </c>
       <c r="L35" s="72">
-        <v>124.70400000000004</v>
+        <v>124.70400000000001</v>
       </c>
       <c r="M35" s="72">
         <v>38.148000000000003</v>
       </c>
       <c r="N35" s="72">
-        <v>152.53000000000003</v>
+        <v>152.53</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -9231,10 +9231,10 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>28.42</v>
+        <v>28.419999999999995</v>
       </c>
       <c r="L37" s="72">
-        <v>57.779999999999987</v>
+        <v>57.779999999999994</v>
       </c>
       <c r="M37" s="72">
         <v>86.234000000000009</v>
@@ -9278,13 +9278,13 @@
         <v>40.909999999999997</v>
       </c>
       <c r="L38" s="72">
-        <v>72.568000000000012</v>
+        <v>72.567999999999984</v>
       </c>
       <c r="M38" s="72">
-        <v>13.632000000000001</v>
+        <v>13.632</v>
       </c>
       <c r="N38" s="72">
-        <v>113.47800000000001</v>
+        <v>113.47799999999998</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -9322,13 +9322,13 @@
         <v>25.454000000000001</v>
       </c>
       <c r="L39" s="72">
-        <v>99.59699999999998</v>
+        <v>99.597000000000008</v>
       </c>
       <c r="M39" s="72">
         <v>13.881</v>
       </c>
       <c r="N39" s="72">
-        <v>125.05099999999999</v>
+        <v>125.051</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -9492,7 +9492,7 @@
         <v>7.3410000000000002</v>
       </c>
       <c r="N43" s="72">
-        <v>108.098</v>
+        <v>108.09799999999998</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -9527,16 +9527,16 @@
         <v>70</v>
       </c>
       <c r="K44" s="72">
-        <v>27.687000000000001</v>
+        <v>27.687000000000005</v>
       </c>
       <c r="L44" s="72">
-        <v>101.605</v>
+        <v>101.60499999999996</v>
       </c>
       <c r="M44" s="72">
         <v>6.4930000000000003</v>
       </c>
       <c r="N44" s="72">
-        <v>129.292</v>
+        <v>129.29199999999997</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9621,7 +9621,7 @@
         <v>65.371999999999986</v>
       </c>
       <c r="M46" s="72">
-        <v>86.248999999999995</v>
+        <v>86.249000000000009</v>
       </c>
       <c r="N46" s="72">
         <v>99.22999999999999</v>
@@ -9659,10 +9659,10 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>44.321999999999996</v>
+        <v>44.321999999999989</v>
       </c>
       <c r="L47" s="72">
-        <v>84.009999999999991</v>
+        <v>84.01</v>
       </c>
       <c r="M47" s="72">
         <v>15.219999999999999</v>
@@ -9709,7 +9709,7 @@
         <v>102.21000000000001</v>
       </c>
       <c r="M48" s="72">
-        <v>26.122000000000003</v>
+        <v>26.122</v>
       </c>
       <c r="N48" s="72">
         <v>141.77600000000001</v>
@@ -9911,10 +9911,10 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>38.171000000000006</v>
+        <v>38.170999999999999</v>
       </c>
       <c r="L53" s="72">
-        <v>122.81699999999999</v>
+        <v>122.81700000000001</v>
       </c>
       <c r="M53" s="72">
         <v>9.0229999999999997</v>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="M158" s="72">
-        <v>55.982000000000006</v>
+        <v>55.981999999999999</v>
       </c>
       <c r="N158" s="72">
         <v>0</v>
@@ -14651,7 +14651,7 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>12.897</v>
+        <v>12.896999999999998</v>
       </c>
       <c r="L164" s="72">
         <v>41.153000000000006</v>
@@ -14906,13 +14906,13 @@
         <v>32.456000000000003</v>
       </c>
       <c r="L170" s="72">
-        <v>48.235000000000014</v>
+        <v>48.234999999999999</v>
       </c>
       <c r="M170" s="72">
         <v>5.2640000000000002</v>
       </c>
       <c r="N170" s="72">
-        <v>80.691000000000017</v>
+        <v>80.691000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -14947,13 +14947,13 @@
         <v>70</v>
       </c>
       <c r="K171" s="72">
-        <v>22.016000000000002</v>
+        <v>22.015999999999998</v>
       </c>
       <c r="L171" s="72">
-        <v>51.234999999999999</v>
+        <v>51.235000000000007</v>
       </c>
       <c r="M171" s="72">
-        <v>29.456</v>
+        <v>29.455999999999996</v>
       </c>
       <c r="N171" s="72">
         <v>73.251000000000005</v>
@@ -14994,13 +14994,13 @@
         <v>17.838000000000001</v>
       </c>
       <c r="L172" s="72">
-        <v>17.863000000000007</v>
+        <v>17.863</v>
       </c>
       <c r="M172" s="72">
         <v>55.388000000000005</v>
       </c>
       <c r="N172" s="72">
-        <v>35.701000000000008</v>
+        <v>35.701000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -15038,13 +15038,13 @@
         <v>13.244</v>
       </c>
       <c r="L173" s="72">
-        <v>26.930000000000007</v>
+        <v>26.929999999999993</v>
       </c>
       <c r="M173" s="72">
         <v>8.7710000000000008</v>
       </c>
       <c r="N173" s="72">
-        <v>40.174000000000007</v>
+        <v>40.173999999999992</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -15085,7 +15085,7 @@
         <v>30.197000000000003</v>
       </c>
       <c r="M174" s="72">
-        <v>9.9769999999999985</v>
+        <v>9.9770000000000003</v>
       </c>
       <c r="N174" s="72">
         <v>36.129000000000005</v>
@@ -15126,13 +15126,13 @@
         <v>1.7690000000000001</v>
       </c>
       <c r="L175" s="72">
-        <v>27.970000000000006</v>
+        <v>27.97</v>
       </c>
       <c r="M175" s="72">
         <v>8.1590000000000007</v>
       </c>
       <c r="N175" s="72">
-        <v>29.739000000000004</v>
+        <v>29.738999999999997</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -15170,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="M176" s="72">
-        <v>29.739000000000004</v>
+        <v>29.738999999999997</v>
       </c>
       <c r="N176" s="72">
         <v>0</v>
@@ -15243,10 +15243,10 @@
         <v>70</v>
       </c>
       <c r="K178" s="72">
-        <v>35.912000000000006</v>
+        <v>35.911999999999999</v>
       </c>
       <c r="L178" s="72">
-        <v>26.405999999999992</v>
+        <v>26.405999999999999</v>
       </c>
       <c r="M178" s="72">
         <v>2.66</v>
@@ -15290,13 +15290,13 @@
         <v>28.009</v>
       </c>
       <c r="L179" s="72">
-        <v>47.516000000000005</v>
+        <v>47.515999999999991</v>
       </c>
       <c r="M179" s="72">
-        <v>14.802000000000001</v>
+        <v>14.802</v>
       </c>
       <c r="N179" s="72">
-        <v>75.525000000000006</v>
+        <v>75.524999999999991</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -15378,13 +15378,13 @@
         <v>20.954000000000001</v>
       </c>
       <c r="L181" s="72">
-        <v>17.877999999999993</v>
+        <v>17.878</v>
       </c>
       <c r="M181" s="72">
-        <v>49.025000000000006</v>
+        <v>49.024999999999999</v>
       </c>
       <c r="N181" s="72">
-        <v>38.831999999999994</v>
+        <v>38.832000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -15422,13 +15422,13 @@
         <v>14.339000000000002</v>
       </c>
       <c r="L182" s="72">
-        <v>30.89599999999999</v>
+        <v>30.895999999999997</v>
       </c>
       <c r="M182" s="72">
         <v>7.9359999999999999</v>
       </c>
       <c r="N182" s="72">
-        <v>45.234999999999992</v>
+        <v>45.234999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -15463,16 +15463,16 @@
         <v>70</v>
       </c>
       <c r="K183" s="72">
-        <v>13.946</v>
+        <v>13.946000000000002</v>
       </c>
       <c r="L183" s="72">
-        <v>36.089999999999996</v>
+        <v>36.090000000000003</v>
       </c>
       <c r="M183" s="72">
         <v>9.1449999999999996</v>
       </c>
       <c r="N183" s="72">
-        <v>50.035999999999994</v>
+        <v>50.036000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -15513,7 +15513,7 @@
         <v>27.584000000000003</v>
       </c>
       <c r="M184" s="72">
-        <v>22.452000000000002</v>
+        <v>22.451999999999998</v>
       </c>
       <c r="N184" s="72">
         <v>30.029000000000003</v>
@@ -15627,10 +15627,10 @@
         <v>70</v>
       </c>
       <c r="K187" s="72">
-        <v>33.419000000000004</v>
+        <v>33.418999999999997</v>
       </c>
       <c r="L187" s="72">
-        <v>24.698999999999998</v>
+        <v>24.699000000000005</v>
       </c>
       <c r="M187" s="72">
         <v>2.65</v>
@@ -15671,10 +15671,10 @@
         <v>70</v>
       </c>
       <c r="K188" s="72">
-        <v>25.35</v>
+        <v>25.349999999999998</v>
       </c>
       <c r="L188" s="72">
-        <v>47.267999999999994</v>
+        <v>47.268000000000001</v>
       </c>
       <c r="M188" s="72">
         <v>10.85</v>
@@ -15721,7 +15721,7 @@
         <v>45.141000000000012</v>
       </c>
       <c r="M189" s="72">
-        <v>27.476999999999997</v>
+        <v>27.477</v>
       </c>
       <c r="N189" s="72">
         <v>72.128000000000014</v>
@@ -15759,16 +15759,16 @@
         <v>70</v>
       </c>
       <c r="K190" s="72">
-        <v>23.855999999999998</v>
+        <v>23.856000000000002</v>
       </c>
       <c r="L190" s="72">
-        <v>22.346999999999998</v>
+        <v>22.347000000000001</v>
       </c>
       <c r="M190" s="72">
         <v>49.781000000000006</v>
       </c>
       <c r="N190" s="72">
-        <v>46.202999999999996</v>
+        <v>46.203000000000003</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -15967,7 +15967,7 @@
         <v>70</v>
       </c>
       <c r="K195" s="72">
-        <v>24.585000000000001</v>
+        <v>24.584999999999997</v>
       </c>
       <c r="L195" s="72">
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="N195" s="72">
-        <v>24.585000000000001</v>
+        <v>24.584999999999997</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -16014,13 +16014,13 @@
         <v>29.277000000000001</v>
       </c>
       <c r="L196" s="72">
-        <v>21.970999999999997</v>
+        <v>21.970999999999989</v>
       </c>
       <c r="M196" s="72">
         <v>2.6139999999999999</v>
       </c>
       <c r="N196" s="72">
-        <v>51.247999999999998</v>
+        <v>51.24799999999999</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -20713,7 +20713,7 @@
         <v>26.58</v>
       </c>
       <c r="M306" s="72">
-        <v>62.636000000000003</v>
+        <v>62.63600000000001</v>
       </c>
       <c r="N306" s="72">
         <v>32.747999999999998</v>
@@ -20830,13 +20830,13 @@
         <v>88.794000000000011</v>
       </c>
       <c r="L309" s="72">
-        <v>37.962000000000003</v>
+        <v>37.961999999999989</v>
       </c>
       <c r="M309" s="72">
         <v>5.0990000000000002</v>
       </c>
       <c r="N309" s="72">
-        <v>126.75600000000001</v>
+        <v>126.756</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -20874,13 +20874,13 @@
         <v>43.131</v>
       </c>
       <c r="L310" s="72">
-        <v>69.381</v>
+        <v>69.381000000000014</v>
       </c>
       <c r="M310" s="72">
-        <v>57.375000000000007</v>
+        <v>57.375</v>
       </c>
       <c r="N310" s="72">
-        <v>112.512</v>
+        <v>112.51200000000001</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
@@ -21123,7 +21123,7 @@
         <v>70</v>
       </c>
       <c r="K316" s="72">
-        <v>81.423999999999992</v>
+        <v>81.424000000000007</v>
       </c>
       <c r="L316" s="72">
         <v>34.896000000000001</v>
@@ -21132,7 +21132,7 @@
         <v>5.0369999999999999</v>
       </c>
       <c r="N316" s="72">
-        <v>116.32</v>
+        <v>116.32000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
@@ -21167,13 +21167,13 @@
         <v>70</v>
       </c>
       <c r="K317" s="72">
-        <v>45.329000000000008</v>
+        <v>45.329000000000001</v>
       </c>
       <c r="L317" s="72">
         <v>68.245000000000005</v>
       </c>
       <c r="M317" s="72">
-        <v>48.075000000000003</v>
+        <v>48.074999999999996</v>
       </c>
       <c r="N317" s="72">
         <v>113.57400000000001</v>
@@ -21211,16 +21211,16 @@
         <v>70</v>
       </c>
       <c r="K318" s="72">
-        <v>39.955999999999996</v>
+        <v>39.956000000000003</v>
       </c>
       <c r="L318" s="72">
-        <v>41.402999999999984</v>
+        <v>41.403000000000006</v>
       </c>
       <c r="M318" s="72">
         <v>72.170999999999992</v>
       </c>
       <c r="N318" s="72">
-        <v>81.35899999999998</v>
+        <v>81.359000000000009</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -21255,10 +21255,10 @@
         <v>70</v>
       </c>
       <c r="K319" s="72">
-        <v>38.267000000000003</v>
+        <v>38.26700000000001</v>
       </c>
       <c r="L319" s="72">
-        <v>56.18</v>
+        <v>56.179999999999993</v>
       </c>
       <c r="M319" s="72">
         <v>25.179000000000002</v>
@@ -21375,7 +21375,7 @@
         <v>70</v>
       </c>
       <c r="K322" s="72">
-        <v>39.993000000000009</v>
+        <v>39.992999999999995</v>
       </c>
       <c r="L322" s="72">
         <v>0</v>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="N322" s="72">
-        <v>39.993000000000009</v>
+        <v>39.992999999999995</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -21422,13 +21422,13 @@
         <v>81.260999999999996</v>
       </c>
       <c r="L323" s="72">
-        <v>34.980000000000004</v>
+        <v>34.980000000000018</v>
       </c>
       <c r="M323" s="72">
         <v>5.0129999999999999</v>
       </c>
       <c r="N323" s="72">
-        <v>116.241</v>
+        <v>116.24100000000001</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
@@ -21513,7 +21513,7 @@
         <v>33.917000000000002</v>
       </c>
       <c r="M325" s="72">
-        <v>65.097999999999999</v>
+        <v>65.098000000000013</v>
       </c>
       <c r="N325" s="72">
         <v>71.853999999999999</v>
@@ -21551,10 +21551,10 @@
         <v>70</v>
       </c>
       <c r="K326" s="72">
-        <v>27.712999999999997</v>
+        <v>27.713000000000001</v>
       </c>
       <c r="L326" s="72">
-        <v>49.513000000000005</v>
+        <v>49.512999999999998</v>
       </c>
       <c r="M326" s="72">
         <v>22.341000000000001</v>
@@ -25449,7 +25449,7 @@
         <v>30.620999999999995</v>
       </c>
       <c r="M418" s="72">
-        <v>73.046000000000006</v>
+        <v>73.045999999999992</v>
       </c>
       <c r="N418" s="72">
         <v>36.504999999999995</v>
@@ -25563,7 +25563,7 @@
         <v>70</v>
       </c>
       <c r="K421" s="72">
-        <v>78.055999999999997</v>
+        <v>78.056000000000012</v>
       </c>
       <c r="L421" s="72">
         <v>32.483000000000004</v>
@@ -25572,7 +25572,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="N421" s="72">
-        <v>110.539</v>
+        <v>110.53900000000002</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -25613,7 +25613,7 @@
         <v>66.746000000000009</v>
       </c>
       <c r="M422" s="72">
-        <v>43.792999999999992</v>
+        <v>43.792999999999999</v>
       </c>
       <c r="N422" s="72">
         <v>104.66900000000001</v>
@@ -25698,13 +25698,13 @@
         <v>55.911000000000001</v>
       </c>
       <c r="L424" s="72">
-        <v>48.284000000000006</v>
+        <v>48.283999999999992</v>
       </c>
       <c r="M424" s="72">
         <v>21.911999999999999</v>
       </c>
       <c r="N424" s="72">
-        <v>104.19500000000001</v>
+        <v>104.19499999999999</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
@@ -25742,13 +25742,13 @@
         <v>4.867</v>
       </c>
       <c r="L425" s="72">
-        <v>30.366000000000003</v>
+        <v>30.365999999999996</v>
       </c>
       <c r="M425" s="72">
         <v>73.829000000000008</v>
       </c>
       <c r="N425" s="72">
-        <v>35.233000000000004</v>
+        <v>35.232999999999997</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="M426" s="72">
-        <v>35.233000000000004</v>
+        <v>35.232999999999997</v>
       </c>
       <c r="N426" s="72">
         <v>0</v>
@@ -25950,13 +25950,13 @@
         <v>36.198999999999998</v>
       </c>
       <c r="L430" s="72">
-        <v>26.642000000000003</v>
+        <v>26.64200000000001</v>
       </c>
       <c r="M430" s="72">
         <v>70.173000000000002</v>
       </c>
       <c r="N430" s="72">
-        <v>62.841000000000001</v>
+        <v>62.841000000000008</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
@@ -25997,7 +25997,7 @@
         <v>41.767000000000003</v>
       </c>
       <c r="M431" s="72">
-        <v>21.074000000000002</v>
+        <v>21.073999999999998</v>
       </c>
       <c r="N431" s="72">
         <v>70.173000000000002</v>
@@ -26158,13 +26158,13 @@
         <v>81.306000000000012</v>
       </c>
       <c r="L435" s="72">
-        <v>34.107999999999976</v>
+        <v>34.108000000000004</v>
       </c>
       <c r="M435" s="72">
         <v>4.9749999999999996</v>
       </c>
       <c r="N435" s="72">
-        <v>115.41399999999999</v>
+        <v>115.41400000000002</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
@@ -26202,13 +26202,13 @@
         <v>32.695999999999998</v>
       </c>
       <c r="L436" s="72">
-        <v>62.501000000000005</v>
+        <v>62.501000000000033</v>
       </c>
       <c r="M436" s="72">
         <v>52.912999999999997</v>
       </c>
       <c r="N436" s="72">
-        <v>95.197000000000003</v>
+        <v>95.197000000000031</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
@@ -26290,13 +26290,13 @@
         <v>38.001999999999995</v>
       </c>
       <c r="L438" s="72">
-        <v>43.543000000000021</v>
+        <v>43.543000000000006</v>
       </c>
       <c r="M438" s="72">
         <v>21.91</v>
       </c>
       <c r="N438" s="72">
-        <v>81.545000000000016</v>
+        <v>81.545000000000002</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
@@ -30123,10 +30123,10 @@
         <v>70</v>
       </c>
       <c r="K529" s="72">
-        <v>46.584000000000003</v>
+        <v>46.583999999999996</v>
       </c>
       <c r="L529" s="72">
-        <v>39.663999999999987</v>
+        <v>39.663999999999994</v>
       </c>
       <c r="M529" s="72">
         <v>4.8650000000000002</v>
@@ -30170,13 +30170,13 @@
         <v>84.803000000000011</v>
       </c>
       <c r="L530" s="72">
-        <v>8.4629999999999939</v>
+        <v>8.4630000000000081</v>
       </c>
       <c r="M530" s="72">
         <v>77.784999999999997</v>
       </c>
       <c r="N530" s="72">
-        <v>93.266000000000005</v>
+        <v>93.26600000000002</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.25">
@@ -30217,7 +30217,7 @@
         <v>27.945</v>
       </c>
       <c r="M531" s="72">
-        <v>65.320999999999998</v>
+        <v>65.321000000000012</v>
       </c>
       <c r="N531" s="72">
         <v>32.600999999999999</v>
@@ -30287,7 +30287,7 @@
         <v>70</v>
       </c>
       <c r="K533" s="72">
-        <v>43.864999999999995</v>
+        <v>43.865000000000009</v>
       </c>
       <c r="L533" s="72">
         <v>0</v>
@@ -30296,7 +30296,7 @@
         <v>0</v>
       </c>
       <c r="N533" s="72">
-        <v>43.864999999999995</v>
+        <v>43.865000000000009</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.25">
@@ -30378,13 +30378,13 @@
         <v>73.381</v>
       </c>
       <c r="L535" s="72">
-        <v>8.3230000000000075</v>
+        <v>8.3229999999999933</v>
       </c>
       <c r="M535" s="72">
-        <v>76.434000000000012</v>
+        <v>76.433999999999997</v>
       </c>
       <c r="N535" s="72">
-        <v>81.704000000000008</v>
+        <v>81.703999999999994</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.25">
@@ -30542,13 +30542,13 @@
         <v>42.550999999999995</v>
       </c>
       <c r="L539" s="72">
-        <v>36.511000000000003</v>
+        <v>36.511000000000017</v>
       </c>
       <c r="M539" s="72">
         <v>4.7759999999999998</v>
       </c>
       <c r="N539" s="72">
-        <v>79.061999999999998</v>
+        <v>79.062000000000012</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.25">
@@ -30586,13 +30586,13 @@
         <v>72.070999999999998</v>
       </c>
       <c r="L540" s="72">
-        <v>8.2549999999999955</v>
+        <v>8.2550000000000097</v>
       </c>
       <c r="M540" s="72">
         <v>70.807000000000002</v>
       </c>
       <c r="N540" s="72">
-        <v>80.325999999999993</v>
+        <v>80.326000000000008</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30630,13 +30630,13 @@
         <v>4.4060000000000006</v>
       </c>
       <c r="L541" s="72">
-        <v>24.006999999999998</v>
+        <v>24.007000000000005</v>
       </c>
       <c r="M541" s="72">
         <v>56.319000000000003</v>
       </c>
       <c r="N541" s="72">
-        <v>28.412999999999997</v>
+        <v>28.413000000000004</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -33454,13 +33454,13 @@
         <v>89.469000000000008</v>
       </c>
       <c r="L609" s="72">
-        <v>38.108000000000018</v>
+        <v>38.10799999999999</v>
       </c>
       <c r="M609" s="72">
         <v>4.6720000000000006</v>
       </c>
       <c r="N609" s="72">
-        <v>127.57700000000003</v>
+        <v>127.577</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.25">
@@ -33498,13 +33498,13 @@
         <v>75.52600000000001</v>
       </c>
       <c r="L610" s="72">
-        <v>11.914999999999992</v>
+        <v>11.915000000000006</v>
       </c>
       <c r="M610" s="72">
         <v>115.66200000000001</v>
       </c>
       <c r="N610" s="72">
-        <v>87.441000000000003</v>
+        <v>87.441000000000017</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.25">
@@ -33709,7 +33709,7 @@
         <v>11.722999999999999</v>
       </c>
       <c r="M615" s="72">
-        <v>117.755</v>
+        <v>117.75500000000001</v>
       </c>
       <c r="N615" s="72">
         <v>78.122</v>
@@ -33753,7 +33753,7 @@
         <v>23.797999999999998</v>
       </c>
       <c r="M616" s="72">
-        <v>54.323999999999998</v>
+        <v>54.324000000000005</v>
       </c>
       <c r="N616" s="72">
         <v>26.138999999999999</v>
@@ -33823,7 +33823,7 @@
         <v>70</v>
       </c>
       <c r="K618" s="72">
-        <v>41.316000000000003</v>
+        <v>41.31600000000001</v>
       </c>
       <c r="L618" s="72">
         <v>0</v>
@@ -33832,7 +33832,7 @@
         <v>0</v>
       </c>
       <c r="N618" s="72">
-        <v>41.316000000000003</v>
+        <v>41.31600000000001</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.25">
@@ -33867,16 +33867,16 @@
         <v>70</v>
       </c>
       <c r="K619" s="72">
-        <v>85.635000000000019</v>
+        <v>85.635000000000005</v>
       </c>
       <c r="L619" s="72">
-        <v>36.736999999999981</v>
+        <v>36.737000000000009</v>
       </c>
       <c r="M619" s="72">
         <v>4.5789999999999997</v>
       </c>
       <c r="N619" s="72">
-        <v>122.372</v>
+        <v>122.37200000000001</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.25">
@@ -33911,16 +33911,16 @@
         <v>70</v>
       </c>
       <c r="K620" s="72">
-        <v>59.728000000000002</v>
+        <v>59.728000000000009</v>
       </c>
       <c r="L620" s="72">
-        <v>11.619999999999997</v>
+        <v>11.620000000000005</v>
       </c>
       <c r="M620" s="72">
-        <v>110.752</v>
+        <v>110.75200000000001</v>
       </c>
       <c r="N620" s="72">
-        <v>71.347999999999999</v>
+        <v>71.348000000000013</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
@@ -33958,13 +33958,13 @@
         <v>2.2809999999999997</v>
       </c>
       <c r="L621" s="72">
-        <v>21.791999999999998</v>
+        <v>21.792000000000002</v>
       </c>
       <c r="M621" s="72">
         <v>49.555999999999997</v>
       </c>
       <c r="N621" s="72">
-        <v>24.072999999999997</v>
+        <v>24.073</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.25">
@@ -36999,13 +36999,13 @@
         <v>70</v>
       </c>
       <c r="K694" s="72">
-        <v>40.058999999999997</v>
+        <v>40.059000000000005</v>
       </c>
       <c r="L694" s="72">
         <v>74.240000000000009</v>
       </c>
       <c r="M694" s="72">
-        <v>45.194999999999993</v>
+        <v>45.195</v>
       </c>
       <c r="N694" s="72">
         <v>114.29900000000001</v>
@@ -37046,13 +37046,13 @@
         <v>22.33</v>
       </c>
       <c r="L695" s="72">
-        <v>28.692</v>
+        <v>28.692000000000007</v>
       </c>
       <c r="M695" s="72">
         <v>85.606999999999999</v>
       </c>
       <c r="N695" s="72">
-        <v>51.021999999999998</v>
+        <v>51.022000000000006</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.25">
@@ -37137,7 +37137,7 @@
         <v>24.901000000000003</v>
       </c>
       <c r="M697" s="72">
-        <v>58.300000000000004</v>
+        <v>58.3</v>
       </c>
       <c r="N697" s="72">
         <v>30.045000000000002</v>
@@ -37251,10 +37251,10 @@
         <v>70</v>
       </c>
       <c r="K700" s="72">
-        <v>89.887999999999991</v>
+        <v>89.888000000000005</v>
       </c>
       <c r="L700" s="72">
-        <v>38.66200000000002</v>
+        <v>38.662000000000006</v>
       </c>
       <c r="M700" s="72">
         <v>5.1059999999999999</v>
@@ -37339,10 +37339,10 @@
         <v>70</v>
       </c>
       <c r="K702" s="72">
-        <v>22.573999999999998</v>
+        <v>22.574000000000002</v>
       </c>
       <c r="L702" s="72">
-        <v>31.298000000000002</v>
+        <v>31.297999999999998</v>
       </c>
       <c r="M702" s="72">
         <v>86.183999999999997</v>
@@ -37433,7 +37433,7 @@
         <v>22.499000000000002</v>
       </c>
       <c r="M704" s="72">
-        <v>52.728000000000009</v>
+        <v>52.727999999999994</v>
       </c>
       <c r="N704" s="72">
         <v>27.484000000000002</v>
@@ -37547,7 +37547,7 @@
         <v>70</v>
       </c>
       <c r="K707" s="72">
-        <v>85.195000000000007</v>
+        <v>85.194999999999993</v>
       </c>
       <c r="L707" s="72">
         <v>36.719000000000023</v>
@@ -37556,7 +37556,7 @@
         <v>5.093</v>
       </c>
       <c r="N707" s="72">
-        <v>121.91400000000003</v>
+        <v>121.91400000000002</v>
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.25">
@@ -37597,7 +37597,7 @@
         <v>69.713000000000008</v>
       </c>
       <c r="M708" s="72">
-        <v>52.200999999999993</v>
+        <v>52.201000000000001</v>
       </c>
       <c r="N708" s="72">
         <v>119.593</v>
@@ -37638,13 +37638,13 @@
         <v>20.383000000000003</v>
       </c>
       <c r="L709" s="72">
-        <v>33.992999999999995</v>
+        <v>33.993000000000002</v>
       </c>
       <c r="M709" s="72">
-        <v>85.6</v>
+        <v>85.600000000000009</v>
       </c>
       <c r="N709" s="72">
-        <v>54.375999999999998</v>
+        <v>54.376000000000005</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.25">
@@ -37726,13 +37726,13 @@
         <v>4.8029999999999999</v>
       </c>
       <c r="L711" s="72">
-        <v>26.317999999999994</v>
+        <v>26.318000000000001</v>
       </c>
       <c r="M711" s="72">
-        <v>61.597000000000008</v>
+        <v>61.596999999999994</v>
       </c>
       <c r="N711" s="72">
-        <v>31.120999999999995</v>
+        <v>31.121000000000002</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.25">
@@ -37799,7 +37799,7 @@
         <v>70</v>
       </c>
       <c r="K713" s="72">
-        <v>40.087999999999994</v>
+        <v>40.088000000000001</v>
       </c>
       <c r="L713" s="72">
         <v>0</v>
@@ -37808,7 +37808,7 @@
         <v>0</v>
       </c>
       <c r="N713" s="72">
-        <v>40.087999999999994</v>
+        <v>40.088000000000001</v>
       </c>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.25">
@@ -37843,10 +37843,10 @@
         <v>70</v>
       </c>
       <c r="K714" s="72">
-        <v>80.497</v>
+        <v>80.496999999999986</v>
       </c>
       <c r="L714" s="72">
-        <v>35.046000000000006</v>
+        <v>35.046000000000021</v>
       </c>
       <c r="M714" s="72">
         <v>5.0419999999999998</v>
@@ -41735,16 +41735,16 @@
         <v>70</v>
       </c>
       <c r="K806" s="72">
-        <v>53.647000000000006</v>
+        <v>53.646999999999998</v>
       </c>
       <c r="L806" s="72">
-        <v>71.65600000000002</v>
+        <v>71.656000000000006</v>
       </c>
       <c r="M806" s="72">
         <v>52.456000000000003</v>
       </c>
       <c r="N806" s="72">
-        <v>125.30300000000003</v>
+        <v>125.303</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.25">
@@ -41826,13 +41826,13 @@
         <v>32.403999999999996</v>
       </c>
       <c r="L808" s="72">
-        <v>52.619000000000014</v>
+        <v>52.619</v>
       </c>
       <c r="M808" s="72">
-        <v>11.603000000000002</v>
+        <v>11.603</v>
       </c>
       <c r="N808" s="72">
-        <v>85.02300000000001</v>
+        <v>85.022999999999996</v>
       </c>
     </row>
     <row r="809" spans="1:14" x14ac:dyDescent="0.25">
@@ -41990,13 +41990,13 @@
         <v>79.893000000000001</v>
       </c>
       <c r="L812" s="72">
-        <v>33.436999999999983</v>
+        <v>33.437000000000012</v>
       </c>
       <c r="M812" s="72">
         <v>4.95</v>
       </c>
       <c r="N812" s="72">
-        <v>113.32999999999998</v>
+        <v>113.33000000000001</v>
       </c>
     </row>
     <row r="813" spans="1:14" x14ac:dyDescent="0.25">
@@ -42031,10 +42031,10 @@
         <v>70</v>
       </c>
       <c r="K813" s="72">
-        <v>50.962999999999994</v>
+        <v>50.963000000000008</v>
       </c>
       <c r="L813" s="72">
-        <v>70.77600000000001</v>
+        <v>70.775999999999996</v>
       </c>
       <c r="M813" s="72">
         <v>42.554000000000002</v>
@@ -42075,7 +42075,7 @@
         <v>70</v>
       </c>
       <c r="K814" s="72">
-        <v>21.462000000000003</v>
+        <v>21.462</v>
       </c>
       <c r="L814" s="72">
         <v>39.945999999999998</v>
@@ -42084,7 +42084,7 @@
         <v>81.793000000000006</v>
       </c>
       <c r="N814" s="72">
-        <v>61.408000000000001</v>
+        <v>61.407999999999994</v>
       </c>
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.25">
@@ -42119,10 +42119,10 @@
         <v>70</v>
       </c>
       <c r="K815" s="72">
-        <v>34.863999999999997</v>
+        <v>34.864000000000004</v>
       </c>
       <c r="L815" s="72">
-        <v>50.76</v>
+        <v>50.759999999999991</v>
       </c>
       <c r="M815" s="72">
         <v>10.648</v>
@@ -42286,13 +42286,13 @@
         <v>81.97999999999999</v>
       </c>
       <c r="L819" s="72">
-        <v>34.359999999999985</v>
+        <v>34.360000000000014</v>
       </c>
       <c r="M819" s="72">
         <v>4.9369999999999994</v>
       </c>
       <c r="N819" s="72">
-        <v>116.33999999999997</v>
+        <v>116.34</v>
       </c>
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.25">
@@ -42377,7 +42377,7 @@
         <v>35.722000000000001</v>
       </c>
       <c r="M821" s="72">
-        <v>82.308000000000007</v>
+        <v>82.307999999999993</v>
       </c>
       <c r="N821" s="72">
         <v>57.024000000000001</v>
@@ -42415,13 +42415,13 @@
         <v>70</v>
       </c>
       <c r="K822" s="72">
-        <v>28.607999999999997</v>
+        <v>28.608000000000001</v>
       </c>
       <c r="L822" s="72">
-        <v>46.283999999999999</v>
+        <v>46.283999999999992</v>
       </c>
       <c r="M822" s="72">
-        <v>10.739999999999998</v>
+        <v>10.74</v>
       </c>
       <c r="N822" s="72">
         <v>74.891999999999996</v>
@@ -42465,7 +42465,7 @@
         <v>21.876999999999995</v>
       </c>
       <c r="M823" s="72">
-        <v>53.015000000000001</v>
+        <v>53.015000000000008</v>
       </c>
       <c r="N823" s="72">
         <v>26.513999999999996</v>
@@ -42579,10 +42579,10 @@
         <v>70</v>
       </c>
       <c r="K826" s="72">
-        <v>83.442999999999998</v>
+        <v>83.443000000000012</v>
       </c>
       <c r="L826" s="72">
-        <v>35.403000000000006</v>
+        <v>35.402999999999992</v>
       </c>
       <c r="M826" s="72">
         <v>4.8879999999999999</v>
@@ -46357,7 +46357,7 @@
         <v>28.335000000000004</v>
       </c>
       <c r="M915" s="72">
-        <v>81.163000000000011</v>
+        <v>81.162999999999997</v>
       </c>
       <c r="N915" s="72">
         <v>47.230000000000004</v>
@@ -46395,16 +46395,16 @@
         <v>70</v>
       </c>
       <c r="K916" s="72">
-        <v>30.555</v>
+        <v>30.554999999999996</v>
       </c>
       <c r="L916" s="72">
-        <v>36.738000000000007</v>
+        <v>36.738</v>
       </c>
       <c r="M916" s="72">
         <v>10.492000000000001</v>
       </c>
       <c r="N916" s="72">
-        <v>67.293000000000006</v>
+        <v>67.292999999999992</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.25">
@@ -46439,16 +46439,16 @@
         <v>70</v>
       </c>
       <c r="K917" s="72">
-        <v>37.178999999999995</v>
+        <v>37.179000000000002</v>
       </c>
       <c r="L917" s="72">
-        <v>54.743000000000002</v>
+        <v>54.743000000000009</v>
       </c>
       <c r="M917" s="72">
         <v>12.55</v>
       </c>
       <c r="N917" s="72">
-        <v>91.921999999999997</v>
+        <v>91.922000000000011</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.25">
@@ -46486,13 +46486,13 @@
         <v>4.83</v>
       </c>
       <c r="L918" s="72">
-        <v>41.256999999999998</v>
+        <v>41.257000000000005</v>
       </c>
       <c r="M918" s="72">
-        <v>50.664999999999999</v>
+        <v>50.665000000000006</v>
       </c>
       <c r="N918" s="72">
-        <v>46.086999999999996</v>
+        <v>46.087000000000003</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.25">
@@ -46530,7 +46530,7 @@
         <v>0</v>
       </c>
       <c r="M919" s="72">
-        <v>46.086999999999996</v>
+        <v>46.087000000000003</v>
       </c>
       <c r="N919" s="72">
         <v>0</v>
@@ -46603,16 +46603,16 @@
         <v>70</v>
       </c>
       <c r="K921" s="72">
-        <v>57.480000000000004</v>
+        <v>57.48</v>
       </c>
       <c r="L921" s="72">
-        <v>47.445999999999984</v>
+        <v>47.446000000000005</v>
       </c>
       <c r="M921" s="72">
         <v>4.694</v>
       </c>
       <c r="N921" s="72">
-        <v>104.92599999999999</v>
+        <v>104.926</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.25">
@@ -46647,16 +46647,16 @@
         <v>70</v>
       </c>
       <c r="K922" s="72">
-        <v>19.3</v>
+        <v>19.299999999999997</v>
       </c>
       <c r="L922" s="72">
-        <v>83.537000000000006</v>
+        <v>83.53700000000002</v>
       </c>
       <c r="M922" s="72">
         <v>21.389000000000003</v>
       </c>
       <c r="N922" s="72">
-        <v>102.837</v>
+        <v>102.83700000000002</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.25">
@@ -46691,10 +46691,10 @@
         <v>70</v>
       </c>
       <c r="K923" s="72">
-        <v>23.508000000000003</v>
+        <v>23.507999999999999</v>
       </c>
       <c r="L923" s="72">
-        <v>68.074999999999989</v>
+        <v>68.075000000000003</v>
       </c>
       <c r="M923" s="72">
         <v>34.762</v>
@@ -46779,10 +46779,10 @@
         <v>70</v>
       </c>
       <c r="K925" s="72">
-        <v>18.510000000000002</v>
+        <v>18.509999999999998</v>
       </c>
       <c r="L925" s="72">
-        <v>51.287999999999997</v>
+        <v>51.288000000000004</v>
       </c>
       <c r="M925" s="72">
         <v>9.7370000000000001</v>
@@ -46826,13 +46826,13 @@
         <v>22.579000000000001</v>
       </c>
       <c r="L926" s="72">
-        <v>52.364999999999988</v>
+        <v>52.365000000000002</v>
       </c>
       <c r="M926" s="72">
         <v>17.433</v>
       </c>
       <c r="N926" s="72">
-        <v>74.943999999999988</v>
+        <v>74.944000000000003</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.25">
@@ -46870,13 +46870,13 @@
         <v>4.3949999999999996</v>
       </c>
       <c r="L927" s="72">
-        <v>33.722000000000008</v>
+        <v>33.721999999999994</v>
       </c>
       <c r="M927" s="72">
-        <v>41.222000000000001</v>
+        <v>41.221999999999994</v>
       </c>
       <c r="N927" s="72">
-        <v>38.117000000000004</v>
+        <v>38.116999999999997</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.25">
@@ -47075,16 +47075,16 @@
         <v>70</v>
       </c>
       <c r="K932" s="72">
-        <v>23.113000000000003</v>
+        <v>23.113</v>
       </c>
       <c r="L932" s="72">
-        <v>79.97999999999999</v>
+        <v>79.98</v>
       </c>
       <c r="M932" s="72">
-        <v>27.955000000000002</v>
+        <v>27.954999999999998</v>
       </c>
       <c r="N932" s="72">
-        <v>103.09299999999999</v>
+        <v>103.093</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.25">
@@ -50282,13 +50282,13 @@
         <v>30.820999999999998</v>
       </c>
       <c r="L1007" s="72">
-        <v>118.59900000000002</v>
+        <v>118.59899999999999</v>
       </c>
       <c r="M1007" s="72">
-        <v>16.510000000000002</v>
+        <v>16.509999999999998</v>
       </c>
       <c r="N1007" s="72">
-        <v>149.42000000000002</v>
+        <v>149.41999999999999</v>
       </c>
     </row>
     <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
@@ -50443,16 +50443,16 @@
         <v>70</v>
       </c>
       <c r="K1011" s="72">
-        <v>60.884999999999991</v>
+        <v>60.884999999999998</v>
       </c>
       <c r="L1011" s="72">
-        <v>48.290000000000006</v>
+        <v>48.290000000000013</v>
       </c>
       <c r="M1011" s="72">
         <v>4.6319999999999997</v>
       </c>
       <c r="N1011" s="72">
-        <v>109.175</v>
+        <v>109.17500000000001</v>
       </c>
     </row>
     <row r="1012" spans="1:14" x14ac:dyDescent="0.25">
@@ -50490,13 +50490,13 @@
         <v>28.812000000000005</v>
       </c>
       <c r="L1012" s="72">
-        <v>93.277999999999963</v>
+        <v>93.277999999999992</v>
       </c>
       <c r="M1012" s="72">
-        <v>15.897</v>
+        <v>15.896999999999998</v>
       </c>
       <c r="N1012" s="72">
-        <v>122.08999999999997</v>
+        <v>122.09</v>
       </c>
     </row>
     <row r="1013" spans="1:14" x14ac:dyDescent="0.25">
@@ -50534,13 +50534,13 @@
         <v>30.277000000000001</v>
       </c>
       <c r="L1013" s="72">
-        <v>82.965999999999994</v>
+        <v>82.966000000000022</v>
       </c>
       <c r="M1013" s="72">
-        <v>39.123999999999995</v>
+        <v>39.124000000000009</v>
       </c>
       <c r="N1013" s="72">
-        <v>113.24299999999999</v>
+        <v>113.24300000000002</v>
       </c>
     </row>
     <row r="1014" spans="1:14" x14ac:dyDescent="0.25">
@@ -50575,16 +50575,16 @@
         <v>70</v>
       </c>
       <c r="K1014" s="72">
-        <v>30.603000000000002</v>
+        <v>30.602999999999994</v>
       </c>
       <c r="L1014" s="72">
-        <v>43.559999999999995</v>
+        <v>43.560000000000016</v>
       </c>
       <c r="M1014" s="72">
-        <v>69.682999999999993</v>
+        <v>69.683000000000007</v>
       </c>
       <c r="N1014" s="72">
-        <v>74.162999999999997</v>
+        <v>74.163000000000011</v>
       </c>
     </row>
     <row r="1015" spans="1:14" x14ac:dyDescent="0.25">
@@ -50663,16 +50663,16 @@
         <v>70</v>
       </c>
       <c r="K1016" s="72">
-        <v>17.483000000000001</v>
+        <v>17.482999999999997</v>
       </c>
       <c r="L1016" s="72">
-        <v>62.747000000000014</v>
+        <v>62.747000000000007</v>
       </c>
       <c r="M1016" s="72">
         <v>23.294999999999998</v>
       </c>
       <c r="N1016" s="72">
-        <v>80.230000000000018</v>
+        <v>80.23</v>
       </c>
     </row>
     <row r="1017" spans="1:14" x14ac:dyDescent="0.25">
@@ -50710,13 +50710,13 @@
         <v>4.7850000000000001</v>
       </c>
       <c r="L1017" s="72">
-        <v>35.322999999999993</v>
+        <v>35.323000000000008</v>
       </c>
       <c r="M1017" s="72">
         <v>44.906999999999996</v>
       </c>
       <c r="N1017" s="72">
-        <v>40.107999999999997</v>
+        <v>40.108000000000004</v>
       </c>
     </row>
     <row r="1018" spans="1:14" x14ac:dyDescent="0.25">
@@ -50754,7 +50754,7 @@
         <v>0</v>
       </c>
       <c r="M1018" s="72">
-        <v>40.107999999999997</v>
+        <v>40.108000000000004</v>
       </c>
       <c r="N1018" s="72">
         <v>0</v>
@@ -50783,7 +50783,7 @@
         <v>70</v>
       </c>
       <c r="K1019" s="72">
-        <v>50.21</v>
+        <v>50.209999999999994</v>
       </c>
       <c r="L1019" s="72">
         <v>0</v>
@@ -50792,7 +50792,7 @@
         <v>0</v>
       </c>
       <c r="N1019" s="72">
-        <v>50.21</v>
+        <v>50.209999999999994</v>
       </c>
     </row>
     <row r="1020" spans="1:14" x14ac:dyDescent="0.25">
@@ -50827,7 +50827,7 @@
         <v>70</v>
       </c>
       <c r="K1020" s="72">
-        <v>57.058999999999997</v>
+        <v>57.059000000000012</v>
       </c>
       <c r="L1020" s="72">
         <v>45.748000000000005</v>
@@ -50836,7 +50836,7 @@
         <v>4.4619999999999997</v>
       </c>
       <c r="N1020" s="72">
-        <v>102.807</v>
+        <v>102.80700000000002</v>
       </c>
     </row>
     <row r="1021" spans="1:14" x14ac:dyDescent="0.25">
@@ -50871,10 +50871,10 @@
         <v>70</v>
       </c>
       <c r="K1021" s="72">
-        <v>30.574999999999996</v>
+        <v>30.575000000000003</v>
       </c>
       <c r="L1021" s="72">
-        <v>78.723000000000013</v>
+        <v>78.722999999999999</v>
       </c>
       <c r="M1021" s="72">
         <v>24.084</v>
@@ -50921,7 +50921,7 @@
         <v>73.816999999999979</v>
       </c>
       <c r="M1022" s="72">
-        <v>35.480999999999995</v>
+        <v>35.481000000000002</v>
       </c>
       <c r="N1022" s="72">
         <v>103.10499999999999</v>
@@ -50962,13 +50962,13 @@
         <v>18.46</v>
       </c>
       <c r="L1023" s="72">
-        <v>42.381000000000007</v>
+        <v>42.380999999999993</v>
       </c>
       <c r="M1023" s="72">
         <v>60.724000000000004</v>
       </c>
       <c r="N1023" s="72">
-        <v>60.841000000000008</v>
+        <v>60.840999999999994</v>
       </c>
     </row>
     <row r="1024" spans="1:14" x14ac:dyDescent="0.25">
@@ -51006,13 +51006,13 @@
         <v>22.526</v>
       </c>
       <c r="L1024" s="72">
-        <v>47.50200000000001</v>
+        <v>47.501999999999995</v>
       </c>
       <c r="M1024" s="72">
         <v>13.339</v>
       </c>
       <c r="N1024" s="72">
-        <v>70.028000000000006</v>
+        <v>70.027999999999992</v>
       </c>
     </row>
     <row r="1025" spans="1:14" x14ac:dyDescent="0.25">
@@ -51167,7 +51167,7 @@
         <v>70</v>
       </c>
       <c r="K1028" s="72">
-        <v>48.555999999999997</v>
+        <v>48.556000000000004</v>
       </c>
       <c r="L1028" s="72">
         <v>0</v>
@@ -51176,7 +51176,7 @@
         <v>0</v>
       </c>
       <c r="N1028" s="72">
-        <v>48.555999999999997</v>
+        <v>48.556000000000004</v>
       </c>
     </row>
     <row r="1029" spans="1:14" x14ac:dyDescent="0.25">
@@ -54655,7 +54655,7 @@
         <v>70</v>
       </c>
       <c r="K1110" s="72">
-        <v>85.295999999999992</v>
+        <v>85.296000000000006</v>
       </c>
       <c r="L1110" s="72">
         <v>0</v>
@@ -54664,7 +54664,7 @@
         <v>0</v>
       </c>
       <c r="N1110" s="72">
-        <v>85.295999999999992</v>
+        <v>85.296000000000006</v>
       </c>
     </row>
     <row r="1111" spans="1:14" x14ac:dyDescent="0.25">
@@ -54702,13 +54702,13 @@
         <v>19.341000000000001</v>
       </c>
       <c r="L1111" s="72">
-        <v>77.995000000000005</v>
+        <v>77.994999999999976</v>
       </c>
       <c r="M1111" s="72">
         <v>7.3010000000000002</v>
       </c>
       <c r="N1111" s="72">
-        <v>97.335999999999999</v>
+        <v>97.335999999999984</v>
       </c>
     </row>
     <row r="1112" spans="1:14" x14ac:dyDescent="0.25">
@@ -54749,7 +54749,7 @@
         <v>65.616000000000014</v>
       </c>
       <c r="M1112" s="72">
-        <v>31.720000000000002</v>
+        <v>31.72</v>
       </c>
       <c r="N1112" s="72">
         <v>76.371000000000009</v>
@@ -54916,7 +54916,7 @@
         <v>7.343</v>
       </c>
       <c r="N1116" s="72">
-        <v>90.686000000000007</v>
+        <v>90.685999999999993</v>
       </c>
     </row>
     <row r="1117" spans="1:14" x14ac:dyDescent="0.25">
@@ -56996,7 +56996,7 @@
         <v>2.242</v>
       </c>
       <c r="N1166" s="72">
-        <v>22.989000000000001</v>
+        <v>22.988999999999997</v>
       </c>
     </row>
     <row r="1167" spans="1:14" x14ac:dyDescent="0.25">
@@ -57245,7 +57245,7 @@
         <v>15.318999999999999</v>
       </c>
       <c r="M1172" s="72">
-        <v>8.0190000000000019</v>
+        <v>8.0190000000000001</v>
       </c>
       <c r="N1172" s="72">
         <v>17.471</v>
@@ -61682,13 +61682,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999992</v>
+        <v>296.44324999999986</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84698071428571409</v>
+        <v>0.84698071428571386</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61711,13 +61711,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000021</v>
+        <v>76.064000000000007</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571434</v>
+        <v>0.21732571428571432</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -61798,13 +61798,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>80.989750000000015</v>
+        <v>80.989749999999987</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.57849821428571435</v>
+        <v>0.57849821428571424</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -61856,13 +61856,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61849999999993</v>
+        <v>418.61849999999987</v>
       </c>
       <c r="H16" s="72">
         <v>490</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85432346938775494</v>
+        <v>0.85432346938775483</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -61885,13 +61885,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.18150000000014</v>
+        <v>156.18150000000003</v>
       </c>
       <c r="H17" s="72">
         <v>490</v>
       </c>
       <c r="I17" s="76">
-        <v>0.31873775510204111</v>
+        <v>0.31873775510204089</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -61943,13 +61943,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000014</v>
+        <v>50.377999999999993</v>
       </c>
       <c r="H19" s="72">
         <v>140</v>
       </c>
       <c r="I19" s="76">
-        <v>0.35984285714285724</v>
+        <v>0.35984285714285708</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -62088,13 +62088,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000016</v>
+        <v>61.135749999999987</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.2911226190476191</v>
+        <v>0.29112261904761899</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62117,13 +62117,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000011</v>
+        <v>43.853500000000018</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.20882619047619053</v>
+        <v>0.20882619047619055</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -62204,13 +62204,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>178.53650000000002</v>
+        <v>178.53649999999999</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.85017380952380961</v>
+        <v>0.8501738095238095</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -62320,13 +62320,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>121.27875000000002</v>
+        <v>121.27874999999996</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.57751785714285719</v>
+        <v>0.57751785714285697</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -62349,13 +62349,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43349999999998</v>
+        <v>175.43350000000004</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.835397619047619</v>
+        <v>0.83539761904761922</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -62378,13 +62378,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>724.85199999999929</v>
+        <v>724.85199999999952</v>
       </c>
       <c r="H34" s="72">
         <v>910</v>
       </c>
       <c r="I34" s="76">
-        <v>0.79654065934065854</v>
+        <v>0.79654065934065876</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62407,13 +62407,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>304.21774999999974</v>
+        <v>304.2177499999998</v>
       </c>
       <c r="H35" s="72">
         <v>910</v>
       </c>
       <c r="I35" s="76">
-        <v>0.33430521978021949</v>
+        <v>0.33430521978021954</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62436,13 +62436,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.743499999999997</v>
+        <v>43.74349999999999</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.20830238095238093</v>
+        <v>0.20830238095238091</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62465,13 +62465,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.18075000000006</v>
+        <v>59.180749999999996</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.2818130952380955</v>
+        <v>0.28181309523809522</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -62610,13 +62610,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462499999999977</v>
+        <v>64.462500000000034</v>
       </c>
       <c r="H42" s="72">
         <v>210</v>
       </c>
       <c r="I42" s="76">
-        <v>0.30696428571428558</v>
+        <v>0.30696428571428586</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62639,13 +62639,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313250000000004</v>
+        <v>38.313249999999996</v>
       </c>
       <c r="H43" s="72">
         <v>210</v>
       </c>
       <c r="I43" s="76">
-        <v>0.18244404761904764</v>
+        <v>0.18244404761904759</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -62726,13 +62726,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>124.24325000000002</v>
+        <v>124.24325000000006</v>
       </c>
       <c r="H46" s="72">
         <v>210</v>
       </c>
       <c r="I46" s="76">
-        <v>0.59163452380952386</v>
+        <v>0.59163452380952408</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62755,13 +62755,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>114.32924999999999</v>
+        <v>114.32925000000004</v>
       </c>
       <c r="H47" s="72">
         <v>210</v>
       </c>
       <c r="I47" s="76">
-        <v>0.54442499999999994</v>
+        <v>0.54442500000000016</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62842,13 +62842,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49675000000001</v>
+        <v>124.49675000000006</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.59284166666666671</v>
+        <v>0.59284166666666693</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -62871,13 +62871,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66500000000002</v>
+        <v>188.66499999999985</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476204</v>
+        <v>0.89840476190476115</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -62900,13 +62900,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>413.38474999999971</v>
+        <v>413.3847499999996</v>
       </c>
       <c r="H52" s="72">
         <v>770</v>
       </c>
       <c r="I52" s="76">
-        <v>0.53686331168831136</v>
+        <v>0.53686331168831114</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -62958,13 +62958,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.96725</v>
+        <v>43.967249999999993</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.20936785714285713</v>
+        <v>0.20936785714285711</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -62987,13 +62987,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.39374999999999</v>
+        <v>63.393750000000004</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.30187499999999995</v>
+        <v>0.301875</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -63132,13 +63132,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.990999999999957</v>
+        <v>62.991000000000028</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.29995714285714264</v>
+        <v>0.29995714285714298</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63161,13 +63161,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>42.273750000000014</v>
+        <v>42.273750000000021</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.2013035714285715</v>
+        <v>0.20130357142857153</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -63248,13 +63248,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>183.98974999999993</v>
+        <v>183.98975000000007</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.87614166666666637</v>
+        <v>0.87614166666666704</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63277,13 +63277,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>120.04724999999998</v>
+        <v>120.04725000000005</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.57165357142857132</v>
+        <v>0.57165357142857165</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63364,13 +63364,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.22175000000007</v>
+        <v>128.22175000000004</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476226</v>
+        <v>0.61057976190476215</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -63422,13 +63422,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>263.18924999999996</v>
+        <v>263.18925000000013</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.75196928571428556</v>
+        <v>0.75196928571428612</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63451,13 +63451,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>219.71574999999993</v>
+        <v>219.71574999999996</v>
       </c>
       <c r="H71" s="72">
         <v>350</v>
       </c>
       <c r="I71" s="76">
-        <v>0.62775928571428552</v>
+        <v>0.62775928571428563</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -63509,13 +63509,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.677999999999983</v>
+        <v>56.678000000000004</v>
       </c>
       <c r="H73" s="72">
         <v>210</v>
       </c>
       <c r="I73" s="76">
-        <v>0.26989523809523802</v>
+        <v>0.26989523809523813</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63654,13 +63654,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000007</v>
+        <v>54.477749999999993</v>
       </c>
       <c r="H78" s="72">
         <v>140</v>
       </c>
       <c r="I78" s="76">
-        <v>0.38912678571428577</v>
+        <v>0.38912678571428566</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63683,13 +63683,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.890000000000008</v>
+        <v>35.89</v>
       </c>
       <c r="H79" s="72">
         <v>140</v>
       </c>
       <c r="I79" s="76">
-        <v>0.25635714285714289</v>
+        <v>0.25635714285714284</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -63712,13 +63712,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01474999999996</v>
+        <v>110.01474999999999</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.78581964285714256</v>
+        <v>0.78581964285714279</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -63741,13 +63741,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546750000000003</v>
+        <v>71.546750000000017</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571434</v>
+        <v>0.51104821428571445</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -63770,13 +63770,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11724999999993</v>
+        <v>192.11725000000001</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904725</v>
+        <v>0.9148440476190477</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">

--- a/Grid_5x5/Solutions/Solution_NDP_S006/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S006/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2646,7 +2646,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.9148440476190477</v>
+        <v>0.91484404761904758</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8598,13 +8598,13 @@
         <v>15.504</v>
       </c>
       <c r="L22" s="72">
-        <v>122.97300000000003</v>
+        <v>122.973</v>
       </c>
       <c r="M22" s="72">
         <v>38.256</v>
       </c>
       <c r="N22" s="72">
-        <v>138.47700000000003</v>
+        <v>138.477</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="72">
-        <v>138.47700000000003</v>
+        <v>138.477</v>
       </c>
       <c r="N23" s="72">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>70</v>
       </c>
       <c r="K28" s="72">
-        <v>36.968000000000004</v>
+        <v>36.967999999999996</v>
       </c>
       <c r="L28" s="72">
-        <v>72.567999999999998</v>
+        <v>72.568000000000012</v>
       </c>
       <c r="M28" s="72">
         <v>103.995</v>
@@ -8938,13 +8938,13 @@
         <v>11.325000000000001</v>
       </c>
       <c r="L30" s="72">
-        <v>111.697</v>
+        <v>111.69699999999999</v>
       </c>
       <c r="M30" s="72">
-        <v>27.39</v>
+        <v>27.389999999999997</v>
       </c>
       <c r="N30" s="72">
-        <v>123.02200000000001</v>
+        <v>123.02199999999999</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8985,7 +8985,7 @@
         <v>94.885999999999996</v>
       </c>
       <c r="M31" s="72">
-        <v>28.135999999999996</v>
+        <v>28.135999999999999</v>
       </c>
       <c r="N31" s="72">
         <v>108.089</v>
@@ -9099,10 +9099,10 @@
         <v>70</v>
       </c>
       <c r="K34" s="72">
-        <v>32.581000000000003</v>
+        <v>32.580999999999996</v>
       </c>
       <c r="L34" s="72">
-        <v>130.27099999999996</v>
+        <v>130.27099999999999</v>
       </c>
       <c r="M34" s="72">
         <v>8.8870000000000005</v>
@@ -9149,7 +9149,7 @@
         <v>124.70400000000001</v>
       </c>
       <c r="M35" s="72">
-        <v>38.148000000000003</v>
+        <v>38.14800000000001</v>
       </c>
       <c r="N35" s="72">
         <v>152.53</v>
@@ -9193,7 +9193,7 @@
         <v>108.81100000000001</v>
       </c>
       <c r="M36" s="72">
-        <v>43.718999999999994</v>
+        <v>43.719000000000001</v>
       </c>
       <c r="N36" s="72">
         <v>144.01400000000001</v>
@@ -9231,10 +9231,10 @@
         <v>70</v>
       </c>
       <c r="K37" s="72">
-        <v>28.419999999999995</v>
+        <v>28.419999999999998</v>
       </c>
       <c r="L37" s="72">
-        <v>57.779999999999994</v>
+        <v>57.779999999999987</v>
       </c>
       <c r="M37" s="72">
         <v>86.234000000000009</v>
@@ -9278,13 +9278,13 @@
         <v>40.909999999999997</v>
       </c>
       <c r="L38" s="72">
-        <v>72.567999999999984</v>
+        <v>72.568000000000012</v>
       </c>
       <c r="M38" s="72">
         <v>13.632</v>
       </c>
       <c r="N38" s="72">
-        <v>113.47799999999998</v>
+        <v>113.47800000000001</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -9328,7 +9328,7 @@
         <v>13.881</v>
       </c>
       <c r="N39" s="72">
-        <v>125.051</v>
+        <v>125.05100000000002</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -9366,13 +9366,13 @@
         <v>12.777000000000001</v>
       </c>
       <c r="L40" s="72">
-        <v>96.922999999999988</v>
+        <v>96.923000000000002</v>
       </c>
       <c r="M40" s="72">
         <v>28.128</v>
       </c>
       <c r="N40" s="72">
-        <v>109.69999999999999</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="72">
-        <v>109.69999999999999</v>
+        <v>109.7</v>
       </c>
       <c r="N41" s="72">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>7.3410000000000002</v>
       </c>
       <c r="N43" s="72">
-        <v>108.09799999999998</v>
+        <v>108.098</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -9527,16 +9527,16 @@
         <v>70</v>
       </c>
       <c r="K44" s="72">
-        <v>27.687000000000005</v>
+        <v>27.686999999999998</v>
       </c>
       <c r="L44" s="72">
-        <v>101.60499999999996</v>
+        <v>101.605</v>
       </c>
       <c r="M44" s="72">
         <v>6.4930000000000003</v>
       </c>
       <c r="N44" s="72">
-        <v>129.29199999999997</v>
+        <v>129.292</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -9574,13 +9574,13 @@
         <v>43.454999999999998</v>
       </c>
       <c r="L45" s="72">
-        <v>108.16599999999998</v>
+        <v>108.16600000000001</v>
       </c>
       <c r="M45" s="72">
         <v>21.126000000000001</v>
       </c>
       <c r="N45" s="72">
-        <v>151.62099999999998</v>
+        <v>151.62100000000001</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -9615,16 +9615,16 @@
         <v>70</v>
       </c>
       <c r="K46" s="72">
-        <v>33.858000000000004</v>
+        <v>33.857999999999997</v>
       </c>
       <c r="L46" s="72">
-        <v>65.371999999999986</v>
+        <v>65.372000000000014</v>
       </c>
       <c r="M46" s="72">
-        <v>86.249000000000009</v>
+        <v>86.248999999999995</v>
       </c>
       <c r="N46" s="72">
-        <v>99.22999999999999</v>
+        <v>99.230000000000018</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -9659,10 +9659,10 @@
         <v>70</v>
       </c>
       <c r="K47" s="72">
-        <v>44.321999999999989</v>
+        <v>44.322000000000003</v>
       </c>
       <c r="L47" s="72">
-        <v>84.01</v>
+        <v>84.009999999999991</v>
       </c>
       <c r="M47" s="72">
         <v>15.219999999999999</v>
@@ -9823,7 +9823,7 @@
         <v>70</v>
       </c>
       <c r="K51" s="72">
-        <v>116.09399999999999</v>
+        <v>116.09400000000001</v>
       </c>
       <c r="L51" s="72">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="72">
-        <v>116.09399999999999</v>
+        <v>116.09400000000001</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9911,10 +9911,10 @@
         <v>70</v>
       </c>
       <c r="K53" s="72">
-        <v>38.170999999999999</v>
+        <v>38.171000000000006</v>
       </c>
       <c r="L53" s="72">
-        <v>122.81700000000001</v>
+        <v>122.81699999999999</v>
       </c>
       <c r="M53" s="72">
         <v>9.0229999999999997</v>
@@ -9958,13 +9958,13 @@
         <v>41.087000000000003</v>
       </c>
       <c r="L54" s="72">
-        <v>128.66700000000003</v>
+        <v>128.66699999999997</v>
       </c>
       <c r="M54" s="72">
         <v>32.320999999999998</v>
       </c>
       <c r="N54" s="72">
-        <v>169.75400000000002</v>
+        <v>169.75399999999999</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -14651,16 +14651,16 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>12.896999999999998</v>
+        <v>12.897000000000002</v>
       </c>
       <c r="L164" s="72">
-        <v>41.153000000000006</v>
+        <v>41.152999999999992</v>
       </c>
       <c r="M164" s="72">
         <v>10.712</v>
       </c>
       <c r="N164" s="72">
-        <v>54.050000000000004</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14742,13 +14742,13 @@
         <v>2.2409999999999997</v>
       </c>
       <c r="L166" s="72">
-        <v>22.113</v>
+        <v>22.113000000000003</v>
       </c>
       <c r="M166" s="72">
-        <v>15.968</v>
+        <v>15.968000000000002</v>
       </c>
       <c r="N166" s="72">
-        <v>24.353999999999999</v>
+        <v>24.354000000000003</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="72">
-        <v>24.353999999999999</v>
+        <v>24.354000000000003</v>
       </c>
       <c r="N167" s="72">
         <v>0</v>
@@ -14953,7 +14953,7 @@
         <v>51.235000000000007</v>
       </c>
       <c r="M171" s="72">
-        <v>29.455999999999996</v>
+        <v>29.456000000000003</v>
       </c>
       <c r="N171" s="72">
         <v>73.251000000000005</v>
@@ -14994,13 +14994,13 @@
         <v>17.838000000000001</v>
       </c>
       <c r="L172" s="72">
-        <v>17.863</v>
+        <v>17.862999999999992</v>
       </c>
       <c r="M172" s="72">
         <v>55.388000000000005</v>
       </c>
       <c r="N172" s="72">
-        <v>35.701000000000001</v>
+        <v>35.700999999999993</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -15038,13 +15038,13 @@
         <v>13.244</v>
       </c>
       <c r="L173" s="72">
-        <v>26.929999999999993</v>
+        <v>26.93</v>
       </c>
       <c r="M173" s="72">
         <v>8.7710000000000008</v>
       </c>
       <c r="N173" s="72">
-        <v>40.173999999999992</v>
+        <v>40.173999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -15129,7 +15129,7 @@
         <v>27.97</v>
       </c>
       <c r="M175" s="72">
-        <v>8.1590000000000007</v>
+        <v>8.1589999999999989</v>
       </c>
       <c r="N175" s="72">
         <v>29.738999999999997</v>
@@ -15243,10 +15243,10 @@
         <v>70</v>
       </c>
       <c r="K178" s="72">
-        <v>35.911999999999999</v>
+        <v>35.912000000000006</v>
       </c>
       <c r="L178" s="72">
-        <v>26.405999999999999</v>
+        <v>26.405999999999992</v>
       </c>
       <c r="M178" s="72">
         <v>2.66</v>
@@ -15290,13 +15290,13 @@
         <v>28.009</v>
       </c>
       <c r="L179" s="72">
-        <v>47.515999999999991</v>
+        <v>47.516000000000005</v>
       </c>
       <c r="M179" s="72">
         <v>14.802</v>
       </c>
       <c r="N179" s="72">
-        <v>75.524999999999991</v>
+        <v>75.525000000000006</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -15331,10 +15331,10 @@
         <v>70</v>
       </c>
       <c r="K180" s="72">
-        <v>19.829000000000001</v>
+        <v>19.828999999999997</v>
       </c>
       <c r="L180" s="72">
-        <v>47.074000000000019</v>
+        <v>47.074000000000026</v>
       </c>
       <c r="M180" s="72">
         <v>28.451000000000001</v>
@@ -15381,7 +15381,7 @@
         <v>17.878</v>
       </c>
       <c r="M181" s="72">
-        <v>49.024999999999999</v>
+        <v>49.025000000000006</v>
       </c>
       <c r="N181" s="72">
         <v>38.832000000000001</v>
@@ -15419,10 +15419,10 @@
         <v>70</v>
       </c>
       <c r="K182" s="72">
-        <v>14.339000000000002</v>
+        <v>14.338999999999999</v>
       </c>
       <c r="L182" s="72">
-        <v>30.895999999999997</v>
+        <v>30.896000000000001</v>
       </c>
       <c r="M182" s="72">
         <v>7.9359999999999999</v>
@@ -15463,7 +15463,7 @@
         <v>70</v>
       </c>
       <c r="K183" s="72">
-        <v>13.946000000000002</v>
+        <v>13.945999999999998</v>
       </c>
       <c r="L183" s="72">
         <v>36.090000000000003</v>
@@ -15510,13 +15510,13 @@
         <v>2.4450000000000003</v>
       </c>
       <c r="L184" s="72">
-        <v>27.584000000000003</v>
+        <v>27.584</v>
       </c>
       <c r="M184" s="72">
         <v>22.451999999999998</v>
       </c>
       <c r="N184" s="72">
-        <v>30.029000000000003</v>
+        <v>30.029</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -15583,7 +15583,7 @@
         <v>70</v>
       </c>
       <c r="K186" s="72">
-        <v>27.349</v>
+        <v>27.349000000000004</v>
       </c>
       <c r="L186" s="72">
         <v>0</v>
@@ -15592,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="N186" s="72">
-        <v>27.349</v>
+        <v>27.349000000000004</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -15630,13 +15630,13 @@
         <v>33.418999999999997</v>
       </c>
       <c r="L187" s="72">
-        <v>24.699000000000005</v>
+        <v>24.698999999999998</v>
       </c>
       <c r="M187" s="72">
         <v>2.65</v>
       </c>
       <c r="N187" s="72">
-        <v>58.118000000000002</v>
+        <v>58.117999999999995</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -15671,10 +15671,10 @@
         <v>70</v>
       </c>
       <c r="K188" s="72">
-        <v>25.349999999999998</v>
+        <v>25.35</v>
       </c>
       <c r="L188" s="72">
-        <v>47.268000000000001</v>
+        <v>47.267999999999994</v>
       </c>
       <c r="M188" s="72">
         <v>10.85</v>
@@ -15718,13 +15718,13 @@
         <v>26.987000000000002</v>
       </c>
       <c r="L189" s="72">
-        <v>45.141000000000012</v>
+        <v>45.140999999999998</v>
       </c>
       <c r="M189" s="72">
-        <v>27.477</v>
+        <v>27.476999999999997</v>
       </c>
       <c r="N189" s="72">
-        <v>72.128000000000014</v>
+        <v>72.128</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -15759,10 +15759,10 @@
         <v>70</v>
       </c>
       <c r="K190" s="72">
-        <v>23.856000000000002</v>
+        <v>23.855999999999998</v>
       </c>
       <c r="L190" s="72">
-        <v>22.347000000000001</v>
+        <v>22.347000000000005</v>
       </c>
       <c r="M190" s="72">
         <v>49.781000000000006</v>
@@ -15967,7 +15967,7 @@
         <v>70</v>
       </c>
       <c r="K195" s="72">
-        <v>24.584999999999997</v>
+        <v>24.585000000000001</v>
       </c>
       <c r="L195" s="72">
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="N195" s="72">
-        <v>24.584999999999997</v>
+        <v>24.585000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -20827,10 +20827,10 @@
         <v>70</v>
       </c>
       <c r="K309" s="72">
-        <v>88.794000000000011</v>
+        <v>88.793999999999983</v>
       </c>
       <c r="L309" s="72">
-        <v>37.961999999999989</v>
+        <v>37.962000000000018</v>
       </c>
       <c r="M309" s="72">
         <v>5.0990000000000002</v>
@@ -20871,16 +20871,16 @@
         <v>70</v>
       </c>
       <c r="K310" s="72">
-        <v>43.131</v>
+        <v>43.130999999999993</v>
       </c>
       <c r="L310" s="72">
-        <v>69.381000000000014</v>
+        <v>69.381</v>
       </c>
       <c r="M310" s="72">
         <v>57.375</v>
       </c>
       <c r="N310" s="72">
-        <v>112.51200000000001</v>
+        <v>112.512</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
@@ -20918,13 +20918,13 @@
         <v>40.900999999999996</v>
       </c>
       <c r="L311" s="72">
-        <v>41.118000000000009</v>
+        <v>41.117999999999995</v>
       </c>
       <c r="M311" s="72">
         <v>71.394000000000005</v>
       </c>
       <c r="N311" s="72">
-        <v>82.019000000000005</v>
+        <v>82.018999999999991</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
@@ -21009,7 +21009,7 @@
         <v>26.831000000000003</v>
       </c>
       <c r="M313" s="72">
-        <v>63.445</v>
+        <v>63.445000000000007</v>
       </c>
       <c r="N313" s="72">
         <v>31.938000000000002</v>
@@ -21079,7 +21079,7 @@
         <v>70</v>
       </c>
       <c r="K315" s="72">
-        <v>39.933</v>
+        <v>39.932999999999993</v>
       </c>
       <c r="L315" s="72">
         <v>0</v>
@@ -21088,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="N315" s="72">
-        <v>39.933</v>
+        <v>39.932999999999993</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -21126,13 +21126,13 @@
         <v>81.424000000000007</v>
       </c>
       <c r="L316" s="72">
-        <v>34.896000000000001</v>
+        <v>34.896000000000015</v>
       </c>
       <c r="M316" s="72">
         <v>5.0369999999999999</v>
       </c>
       <c r="N316" s="72">
-        <v>116.32000000000001</v>
+        <v>116.32000000000002</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
@@ -21173,7 +21173,7 @@
         <v>68.245000000000005</v>
       </c>
       <c r="M317" s="72">
-        <v>48.074999999999996</v>
+        <v>48.075000000000003</v>
       </c>
       <c r="N317" s="72">
         <v>113.57400000000001</v>
@@ -21211,13 +21211,13 @@
         <v>70</v>
       </c>
       <c r="K318" s="72">
-        <v>39.956000000000003</v>
+        <v>39.955999999999996</v>
       </c>
       <c r="L318" s="72">
-        <v>41.403000000000006</v>
+        <v>41.403000000000013</v>
       </c>
       <c r="M318" s="72">
-        <v>72.170999999999992</v>
+        <v>72.171000000000006</v>
       </c>
       <c r="N318" s="72">
         <v>81.359000000000009</v>
@@ -21255,10 +21255,10 @@
         <v>70</v>
       </c>
       <c r="K319" s="72">
-        <v>38.26700000000001</v>
+        <v>38.267000000000003</v>
       </c>
       <c r="L319" s="72">
-        <v>56.179999999999993</v>
+        <v>56.18</v>
       </c>
       <c r="M319" s="72">
         <v>25.179000000000002</v>
@@ -21422,13 +21422,13 @@
         <v>81.260999999999996</v>
       </c>
       <c r="L323" s="72">
-        <v>34.980000000000018</v>
+        <v>34.980000000000004</v>
       </c>
       <c r="M323" s="72">
         <v>5.0129999999999999</v>
       </c>
       <c r="N323" s="72">
-        <v>116.24100000000001</v>
+        <v>116.241</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
@@ -21510,13 +21510,13 @@
         <v>37.936999999999998</v>
       </c>
       <c r="L325" s="72">
-        <v>33.917000000000002</v>
+        <v>33.916999999999987</v>
       </c>
       <c r="M325" s="72">
-        <v>65.098000000000013</v>
+        <v>65.097999999999985</v>
       </c>
       <c r="N325" s="72">
-        <v>71.853999999999999</v>
+        <v>71.853999999999985</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
@@ -21551,10 +21551,10 @@
         <v>70</v>
       </c>
       <c r="K326" s="72">
-        <v>27.713000000000001</v>
+        <v>27.712999999999997</v>
       </c>
       <c r="L326" s="72">
-        <v>49.512999999999998</v>
+        <v>49.513000000000005</v>
       </c>
       <c r="M326" s="72">
         <v>22.341000000000001</v>
@@ -21671,7 +21671,7 @@
         <v>70</v>
       </c>
       <c r="K329" s="72">
-        <v>41.325000000000003</v>
+        <v>41.32500000000001</v>
       </c>
       <c r="L329" s="72">
         <v>0</v>
@@ -21680,7 +21680,7 @@
         <v>0</v>
       </c>
       <c r="N329" s="72">
-        <v>41.325000000000003</v>
+        <v>41.32500000000001</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
@@ -25566,13 +25566,13 @@
         <v>78.056000000000012</v>
       </c>
       <c r="L421" s="72">
-        <v>32.483000000000004</v>
+        <v>32.48299999999999</v>
       </c>
       <c r="M421" s="72">
         <v>5.0599999999999996</v>
       </c>
       <c r="N421" s="72">
-        <v>110.53900000000002</v>
+        <v>110.539</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
@@ -25610,13 +25610,13 @@
         <v>37.923000000000002</v>
       </c>
       <c r="L422" s="72">
-        <v>66.746000000000009</v>
+        <v>66.745999999999981</v>
       </c>
       <c r="M422" s="72">
-        <v>43.792999999999999</v>
+        <v>43.793000000000006</v>
       </c>
       <c r="N422" s="72">
-        <v>104.66900000000001</v>
+        <v>104.66899999999998</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
@@ -25742,13 +25742,13 @@
         <v>4.867</v>
       </c>
       <c r="L425" s="72">
-        <v>30.365999999999996</v>
+        <v>30.366000000000003</v>
       </c>
       <c r="M425" s="72">
         <v>73.829000000000008</v>
       </c>
       <c r="N425" s="72">
-        <v>35.232999999999997</v>
+        <v>35.233000000000004</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="M426" s="72">
-        <v>35.232999999999997</v>
+        <v>35.233000000000004</v>
       </c>
       <c r="N426" s="72">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>70.507000000000005</v>
       </c>
       <c r="M429" s="72">
-        <v>39.248999999999995</v>
+        <v>39.249000000000002</v>
       </c>
       <c r="N429" s="72">
         <v>96.814999999999998</v>
@@ -25997,7 +25997,7 @@
         <v>41.767000000000003</v>
       </c>
       <c r="M431" s="72">
-        <v>21.073999999999998</v>
+        <v>21.074000000000002</v>
       </c>
       <c r="N431" s="72">
         <v>70.173000000000002</v>
@@ -26041,7 +26041,7 @@
         <v>20.457000000000001</v>
       </c>
       <c r="M432" s="72">
-        <v>49.716000000000001</v>
+        <v>49.716000000000008</v>
       </c>
       <c r="N432" s="72">
         <v>25.14</v>
@@ -26202,13 +26202,13 @@
         <v>32.695999999999998</v>
       </c>
       <c r="L436" s="72">
-        <v>62.501000000000033</v>
+        <v>62.501000000000019</v>
       </c>
       <c r="M436" s="72">
         <v>52.912999999999997</v>
       </c>
       <c r="N436" s="72">
-        <v>95.197000000000031</v>
+        <v>95.197000000000017</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
@@ -26249,7 +26249,7 @@
         <v>28.926000000000002</v>
       </c>
       <c r="M437" s="72">
-        <v>66.271000000000001</v>
+        <v>66.271000000000015</v>
       </c>
       <c r="N437" s="72">
         <v>65.453000000000003</v>
@@ -26293,7 +26293,7 @@
         <v>43.543000000000006</v>
       </c>
       <c r="M438" s="72">
-        <v>21.91</v>
+        <v>21.909999999999997</v>
       </c>
       <c r="N438" s="72">
         <v>81.545000000000002</v>
@@ -30050,7 +30050,7 @@
         <v>0</v>
       </c>
       <c r="M527" s="72">
-        <v>35.756</v>
+        <v>35.755999999999993</v>
       </c>
       <c r="N527" s="72">
         <v>0</v>
@@ -30123,16 +30123,16 @@
         <v>70</v>
       </c>
       <c r="K529" s="72">
-        <v>46.583999999999996</v>
+        <v>46.584000000000003</v>
       </c>
       <c r="L529" s="72">
-        <v>39.663999999999994</v>
+        <v>39.664000000000001</v>
       </c>
       <c r="M529" s="72">
         <v>4.8650000000000002</v>
       </c>
       <c r="N529" s="72">
-        <v>86.24799999999999</v>
+        <v>86.248000000000005</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.25">
@@ -30217,7 +30217,7 @@
         <v>27.945</v>
       </c>
       <c r="M531" s="72">
-        <v>65.321000000000012</v>
+        <v>65.320999999999998</v>
       </c>
       <c r="N531" s="72">
         <v>32.600999999999999</v>
@@ -30287,7 +30287,7 @@
         <v>70</v>
       </c>
       <c r="K533" s="72">
-        <v>43.865000000000009</v>
+        <v>43.865000000000002</v>
       </c>
       <c r="L533" s="72">
         <v>0</v>
@@ -30296,7 +30296,7 @@
         <v>0</v>
       </c>
       <c r="N533" s="72">
-        <v>43.865000000000009</v>
+        <v>43.865000000000002</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.25">
@@ -30422,13 +30422,13 @@
         <v>4.5270000000000001</v>
       </c>
       <c r="L536" s="72">
-        <v>24.414999999999999</v>
+        <v>24.414999999999996</v>
       </c>
       <c r="M536" s="72">
         <v>57.289000000000001</v>
       </c>
       <c r="N536" s="72">
-        <v>28.942</v>
+        <v>28.941999999999997</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="M537" s="72">
-        <v>28.942</v>
+        <v>28.941999999999997</v>
       </c>
       <c r="N537" s="72">
         <v>0</v>
@@ -30495,7 +30495,7 @@
         <v>70</v>
       </c>
       <c r="K538" s="72">
-        <v>41.287000000000006</v>
+        <v>41.286999999999999</v>
       </c>
       <c r="L538" s="72">
         <v>0</v>
@@ -30504,7 +30504,7 @@
         <v>0</v>
       </c>
       <c r="N538" s="72">
-        <v>41.287000000000006</v>
+        <v>41.286999999999999</v>
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.25">
@@ -30542,13 +30542,13 @@
         <v>42.550999999999995</v>
       </c>
       <c r="L539" s="72">
-        <v>36.511000000000017</v>
+        <v>36.511000000000003</v>
       </c>
       <c r="M539" s="72">
         <v>4.7759999999999998</v>
       </c>
       <c r="N539" s="72">
-        <v>79.062000000000012</v>
+        <v>79.061999999999998</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.25">
@@ -30586,13 +30586,13 @@
         <v>72.070999999999998</v>
       </c>
       <c r="L540" s="72">
-        <v>8.2550000000000097</v>
+        <v>8.2550000000000239</v>
       </c>
       <c r="M540" s="72">
-        <v>70.807000000000002</v>
+        <v>70.806999999999988</v>
       </c>
       <c r="N540" s="72">
-        <v>80.326000000000008</v>
+        <v>80.326000000000022</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
@@ -30630,13 +30630,13 @@
         <v>4.4060000000000006</v>
       </c>
       <c r="L541" s="72">
-        <v>24.007000000000005</v>
+        <v>24.006999999999998</v>
       </c>
       <c r="M541" s="72">
         <v>56.319000000000003</v>
       </c>
       <c r="N541" s="72">
-        <v>28.413000000000004</v>
+        <v>28.412999999999997</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
@@ -33378,7 +33378,7 @@
         <v>0</v>
       </c>
       <c r="M607" s="72">
-        <v>30.702999999999999</v>
+        <v>30.703000000000003</v>
       </c>
       <c r="N607" s="72">
         <v>0</v>
@@ -33451,10 +33451,10 @@
         <v>70</v>
       </c>
       <c r="K609" s="72">
-        <v>89.469000000000008</v>
+        <v>89.468999999999994</v>
       </c>
       <c r="L609" s="72">
-        <v>38.10799999999999</v>
+        <v>38.108000000000004</v>
       </c>
       <c r="M609" s="72">
         <v>4.6720000000000006</v>
@@ -33495,7 +33495,7 @@
         <v>70</v>
       </c>
       <c r="K610" s="72">
-        <v>75.52600000000001</v>
+        <v>75.525999999999996</v>
       </c>
       <c r="L610" s="72">
         <v>11.915000000000006</v>
@@ -33504,7 +33504,7 @@
         <v>115.66200000000001</v>
       </c>
       <c r="N610" s="72">
-        <v>87.441000000000017</v>
+        <v>87.441000000000003</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.25">
@@ -33615,7 +33615,7 @@
         <v>70</v>
       </c>
       <c r="K613" s="72">
-        <v>43.393000000000001</v>
+        <v>43.393000000000008</v>
       </c>
       <c r="L613" s="72">
         <v>0</v>
@@ -33624,7 +33624,7 @@
         <v>0</v>
       </c>
       <c r="N613" s="72">
-        <v>43.393000000000001</v>
+        <v>43.393000000000008</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.25">
@@ -33706,13 +33706,13 @@
         <v>66.399000000000001</v>
       </c>
       <c r="L615" s="72">
-        <v>11.722999999999999</v>
+        <v>11.723000000000013</v>
       </c>
       <c r="M615" s="72">
-        <v>117.75500000000001</v>
+        <v>117.755</v>
       </c>
       <c r="N615" s="72">
-        <v>78.122</v>
+        <v>78.122000000000014</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.25">
@@ -33750,13 +33750,13 @@
         <v>2.3410000000000002</v>
       </c>
       <c r="L616" s="72">
-        <v>23.797999999999998</v>
+        <v>23.797999999999995</v>
       </c>
       <c r="M616" s="72">
         <v>54.324000000000005</v>
       </c>
       <c r="N616" s="72">
-        <v>26.138999999999999</v>
+        <v>26.138999999999996</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.25">
@@ -33794,7 +33794,7 @@
         <v>0</v>
       </c>
       <c r="M617" s="72">
-        <v>26.138999999999999</v>
+        <v>26.138999999999996</v>
       </c>
       <c r="N617" s="72">
         <v>0</v>
@@ -33823,7 +33823,7 @@
         <v>70</v>
       </c>
       <c r="K618" s="72">
-        <v>41.31600000000001</v>
+        <v>41.316000000000003</v>
       </c>
       <c r="L618" s="72">
         <v>0</v>
@@ -33832,7 +33832,7 @@
         <v>0</v>
       </c>
       <c r="N618" s="72">
-        <v>41.31600000000001</v>
+        <v>41.316000000000003</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.25">
@@ -33870,13 +33870,13 @@
         <v>85.635000000000005</v>
       </c>
       <c r="L619" s="72">
-        <v>36.737000000000009</v>
+        <v>36.736999999999995</v>
       </c>
       <c r="M619" s="72">
         <v>4.5789999999999997</v>
       </c>
       <c r="N619" s="72">
-        <v>122.37200000000001</v>
+        <v>122.372</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.25">
@@ -33911,7 +33911,7 @@
         <v>70</v>
       </c>
       <c r="K620" s="72">
-        <v>59.728000000000009</v>
+        <v>59.727999999999994</v>
       </c>
       <c r="L620" s="72">
         <v>11.620000000000005</v>
@@ -33920,7 +33920,7 @@
         <v>110.75200000000001</v>
       </c>
       <c r="N620" s="72">
-        <v>71.348000000000013</v>
+        <v>71.347999999999999</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
@@ -33961,7 +33961,7 @@
         <v>21.792000000000002</v>
       </c>
       <c r="M621" s="72">
-        <v>49.555999999999997</v>
+        <v>49.556000000000004</v>
       </c>
       <c r="N621" s="72">
         <v>24.073</v>
@@ -36882,7 +36882,7 @@
         <v>0</v>
       </c>
       <c r="M691" s="72">
-        <v>40.918999999999997</v>
+        <v>40.919000000000004</v>
       </c>
       <c r="N691" s="72">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>70</v>
       </c>
       <c r="K694" s="72">
-        <v>40.059000000000005</v>
+        <v>40.058999999999997</v>
       </c>
       <c r="L694" s="72">
-        <v>74.240000000000009</v>
+        <v>74.239999999999995</v>
       </c>
       <c r="M694" s="72">
-        <v>45.195</v>
+        <v>45.194999999999993</v>
       </c>
       <c r="N694" s="72">
-        <v>114.29900000000001</v>
+        <v>114.29899999999999</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.25">
@@ -37087,10 +37087,10 @@
         <v>70</v>
       </c>
       <c r="K696" s="72">
-        <v>42.173999999999999</v>
+        <v>42.173999999999992</v>
       </c>
       <c r="L696" s="72">
-        <v>41.026999999999994</v>
+        <v>41.027000000000001</v>
       </c>
       <c r="M696" s="72">
         <v>9.9949999999999992</v>
@@ -37137,7 +37137,7 @@
         <v>24.901000000000003</v>
       </c>
       <c r="M697" s="72">
-        <v>58.3</v>
+        <v>58.300000000000011</v>
       </c>
       <c r="N697" s="72">
         <v>30.045000000000002</v>
@@ -37251,10 +37251,10 @@
         <v>70</v>
       </c>
       <c r="K700" s="72">
-        <v>89.888000000000005</v>
+        <v>89.887999999999977</v>
       </c>
       <c r="L700" s="72">
-        <v>38.662000000000006</v>
+        <v>38.662000000000035</v>
       </c>
       <c r="M700" s="72">
         <v>5.1059999999999999</v>
@@ -37433,7 +37433,7 @@
         <v>22.499000000000002</v>
       </c>
       <c r="M704" s="72">
-        <v>52.727999999999994</v>
+        <v>52.728000000000002</v>
       </c>
       <c r="N704" s="72">
         <v>27.484000000000002</v>
@@ -37550,13 +37550,13 @@
         <v>85.194999999999993</v>
       </c>
       <c r="L707" s="72">
-        <v>36.719000000000023</v>
+        <v>36.718999999999994</v>
       </c>
       <c r="M707" s="72">
         <v>5.093</v>
       </c>
       <c r="N707" s="72">
-        <v>121.91400000000002</v>
+        <v>121.91399999999999</v>
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.25">
@@ -37591,16 +37591,16 @@
         <v>70</v>
       </c>
       <c r="K708" s="72">
-        <v>49.879999999999995</v>
+        <v>49.88</v>
       </c>
       <c r="L708" s="72">
-        <v>69.713000000000008</v>
+        <v>69.713000000000022</v>
       </c>
       <c r="M708" s="72">
         <v>52.201000000000001</v>
       </c>
       <c r="N708" s="72">
-        <v>119.593</v>
+        <v>119.59300000000002</v>
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.25">
@@ -37635,16 +37635,16 @@
         <v>70</v>
       </c>
       <c r="K709" s="72">
-        <v>20.383000000000003</v>
+        <v>20.382999999999999</v>
       </c>
       <c r="L709" s="72">
-        <v>33.993000000000002</v>
+        <v>33.992999999999995</v>
       </c>
       <c r="M709" s="72">
-        <v>85.600000000000009</v>
+        <v>85.6</v>
       </c>
       <c r="N709" s="72">
-        <v>54.376000000000005</v>
+        <v>54.375999999999998</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.25">
@@ -37726,13 +37726,13 @@
         <v>4.8029999999999999</v>
       </c>
       <c r="L711" s="72">
-        <v>26.318000000000001</v>
+        <v>26.317999999999998</v>
       </c>
       <c r="M711" s="72">
-        <v>61.596999999999994</v>
+        <v>61.597000000000001</v>
       </c>
       <c r="N711" s="72">
-        <v>31.121000000000002</v>
+        <v>31.120999999999999</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.25">
@@ -41618,7 +41618,7 @@
         <v>0</v>
       </c>
       <c r="M803" s="72">
-        <v>33.346999999999994</v>
+        <v>33.347000000000001</v>
       </c>
       <c r="N803" s="72">
         <v>0</v>
@@ -41735,13 +41735,13 @@
         <v>70</v>
       </c>
       <c r="K806" s="72">
-        <v>53.646999999999998</v>
+        <v>53.647000000000006</v>
       </c>
       <c r="L806" s="72">
-        <v>71.656000000000006</v>
+        <v>71.655999999999992</v>
       </c>
       <c r="M806" s="72">
-        <v>52.456000000000003</v>
+        <v>52.455999999999989</v>
       </c>
       <c r="N806" s="72">
         <v>125.303</v>
@@ -41779,13 +41779,13 @@
         <v>70</v>
       </c>
       <c r="K807" s="72">
-        <v>23.357999999999997</v>
+        <v>23.358000000000004</v>
       </c>
       <c r="L807" s="72">
-        <v>40.864000000000011</v>
+        <v>40.864000000000004</v>
       </c>
       <c r="M807" s="72">
-        <v>84.438999999999993</v>
+        <v>84.439000000000007</v>
       </c>
       <c r="N807" s="72">
         <v>64.222000000000008</v>
@@ -41870,13 +41870,13 @@
         <v>4.9649999999999999</v>
       </c>
       <c r="L809" s="72">
-        <v>24.914999999999999</v>
+        <v>24.915000000000003</v>
       </c>
       <c r="M809" s="72">
         <v>60.108000000000004</v>
       </c>
       <c r="N809" s="72">
-        <v>29.88</v>
+        <v>29.880000000000003</v>
       </c>
     </row>
     <row r="810" spans="1:14" x14ac:dyDescent="0.25">
@@ -41914,7 +41914,7 @@
         <v>0</v>
       </c>
       <c r="M810" s="72">
-        <v>29.88</v>
+        <v>29.880000000000003</v>
       </c>
       <c r="N810" s="72">
         <v>0</v>
@@ -41990,13 +41990,13 @@
         <v>79.893000000000001</v>
       </c>
       <c r="L812" s="72">
-        <v>33.437000000000012</v>
+        <v>33.436999999999998</v>
       </c>
       <c r="M812" s="72">
         <v>4.95</v>
       </c>
       <c r="N812" s="72">
-        <v>113.33000000000001</v>
+        <v>113.33</v>
       </c>
     </row>
     <row r="813" spans="1:14" x14ac:dyDescent="0.25">
@@ -42075,7 +42075,7 @@
         <v>70</v>
       </c>
       <c r="K814" s="72">
-        <v>21.462</v>
+        <v>21.462000000000003</v>
       </c>
       <c r="L814" s="72">
         <v>39.945999999999998</v>
@@ -42084,7 +42084,7 @@
         <v>81.793000000000006</v>
       </c>
       <c r="N814" s="72">
-        <v>61.407999999999994</v>
+        <v>61.408000000000001</v>
       </c>
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.25">
@@ -42166,13 +42166,13 @@
         <v>4.8109999999999999</v>
       </c>
       <c r="L816" s="72">
-        <v>25.009999999999998</v>
+        <v>25.010000000000005</v>
       </c>
       <c r="M816" s="72">
-        <v>60.614000000000004</v>
+        <v>60.613999999999997</v>
       </c>
       <c r="N816" s="72">
-        <v>29.820999999999998</v>
+        <v>29.821000000000005</v>
       </c>
     </row>
     <row r="817" spans="1:14" x14ac:dyDescent="0.25">
@@ -42210,7 +42210,7 @@
         <v>0</v>
       </c>
       <c r="M817" s="72">
-        <v>29.820999999999998</v>
+        <v>29.821000000000005</v>
       </c>
       <c r="N817" s="72">
         <v>0</v>
@@ -42374,13 +42374,13 @@
         <v>21.302</v>
       </c>
       <c r="L821" s="72">
-        <v>35.722000000000001</v>
+        <v>35.722000000000016</v>
       </c>
       <c r="M821" s="72">
         <v>82.307999999999993</v>
       </c>
       <c r="N821" s="72">
-        <v>57.024000000000001</v>
+        <v>57.024000000000015</v>
       </c>
     </row>
     <row r="822" spans="1:14" x14ac:dyDescent="0.25">
@@ -42415,10 +42415,10 @@
         <v>70</v>
       </c>
       <c r="K822" s="72">
-        <v>28.608000000000001</v>
+        <v>28.607999999999997</v>
       </c>
       <c r="L822" s="72">
-        <v>46.283999999999992</v>
+        <v>46.283999999999999</v>
       </c>
       <c r="M822" s="72">
         <v>10.74</v>
@@ -42462,13 +42462,13 @@
         <v>4.6370000000000005</v>
       </c>
       <c r="L823" s="72">
-        <v>21.876999999999995</v>
+        <v>21.876999999999999</v>
       </c>
       <c r="M823" s="72">
-        <v>53.015000000000008</v>
+        <v>53.015000000000001</v>
       </c>
       <c r="N823" s="72">
-        <v>26.513999999999996</v>
+        <v>26.513999999999999</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.25">
@@ -42535,7 +42535,7 @@
         <v>70</v>
       </c>
       <c r="K825" s="72">
-        <v>40.290999999999997</v>
+        <v>40.291000000000004</v>
       </c>
       <c r="L825" s="72">
         <v>0</v>
@@ -42544,7 +42544,7 @@
         <v>0</v>
       </c>
       <c r="N825" s="72">
-        <v>40.290999999999997</v>
+        <v>40.291000000000004</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.25">
@@ -42579,16 +42579,16 @@
         <v>70</v>
       </c>
       <c r="K826" s="72">
-        <v>83.443000000000012</v>
+        <v>83.442999999999984</v>
       </c>
       <c r="L826" s="72">
-        <v>35.402999999999992</v>
+        <v>35.403000000000006</v>
       </c>
       <c r="M826" s="72">
         <v>4.8879999999999999</v>
       </c>
       <c r="N826" s="72">
-        <v>118.846</v>
+        <v>118.84599999999999</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.25">
@@ -46351,10 +46351,10 @@
         <v>70</v>
       </c>
       <c r="K915" s="72">
-        <v>18.895</v>
+        <v>18.895000000000003</v>
       </c>
       <c r="L915" s="72">
-        <v>28.335000000000004</v>
+        <v>28.335000000000001</v>
       </c>
       <c r="M915" s="72">
         <v>81.162999999999997</v>
@@ -46395,16 +46395,16 @@
         <v>70</v>
       </c>
       <c r="K916" s="72">
-        <v>30.554999999999996</v>
+        <v>30.555</v>
       </c>
       <c r="L916" s="72">
-        <v>36.738</v>
+        <v>36.738000000000007</v>
       </c>
       <c r="M916" s="72">
         <v>10.492000000000001</v>
       </c>
       <c r="N916" s="72">
-        <v>67.292999999999992</v>
+        <v>67.293000000000006</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.25">
@@ -46442,13 +46442,13 @@
         <v>37.179000000000002</v>
       </c>
       <c r="L917" s="72">
-        <v>54.743000000000009</v>
+        <v>54.743000000000023</v>
       </c>
       <c r="M917" s="72">
-        <v>12.55</v>
+        <v>12.549999999999999</v>
       </c>
       <c r="N917" s="72">
-        <v>91.922000000000011</v>
+        <v>91.922000000000025</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.25">
@@ -46606,13 +46606,13 @@
         <v>57.48</v>
       </c>
       <c r="L921" s="72">
-        <v>47.446000000000005</v>
+        <v>47.446000000000019</v>
       </c>
       <c r="M921" s="72">
         <v>4.694</v>
       </c>
       <c r="N921" s="72">
-        <v>104.926</v>
+        <v>104.92600000000002</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.25">
@@ -46647,16 +46647,16 @@
         <v>70</v>
       </c>
       <c r="K922" s="72">
-        <v>19.299999999999997</v>
+        <v>19.3</v>
       </c>
       <c r="L922" s="72">
-        <v>83.53700000000002</v>
+        <v>83.537000000000006</v>
       </c>
       <c r="M922" s="72">
-        <v>21.389000000000003</v>
+        <v>21.388999999999999</v>
       </c>
       <c r="N922" s="72">
-        <v>102.83700000000002</v>
+        <v>102.837</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.25">
@@ -46691,13 +46691,13 @@
         <v>70</v>
       </c>
       <c r="K923" s="72">
-        <v>23.507999999999999</v>
+        <v>23.508000000000003</v>
       </c>
       <c r="L923" s="72">
-        <v>68.075000000000003</v>
+        <v>68.074999999999989</v>
       </c>
       <c r="M923" s="72">
-        <v>34.762</v>
+        <v>34.761999999999993</v>
       </c>
       <c r="N923" s="72">
         <v>91.582999999999998</v>
@@ -46870,13 +46870,13 @@
         <v>4.3949999999999996</v>
       </c>
       <c r="L927" s="72">
-        <v>33.721999999999994</v>
+        <v>33.722000000000008</v>
       </c>
       <c r="M927" s="72">
-        <v>41.221999999999994</v>
+        <v>41.222000000000001</v>
       </c>
       <c r="N927" s="72">
-        <v>38.116999999999997</v>
+        <v>38.117000000000004</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.25">
@@ -46990,13 +46990,13 @@
         <v>62.247</v>
       </c>
       <c r="L930" s="72">
-        <v>51.847999999999999</v>
+        <v>51.848000000000013</v>
       </c>
       <c r="M930" s="72">
         <v>4.6680000000000001</v>
       </c>
       <c r="N930" s="72">
-        <v>114.095</v>
+        <v>114.09500000000001</v>
       </c>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.25">
@@ -47078,13 +47078,13 @@
         <v>23.113</v>
       </c>
       <c r="L932" s="72">
-        <v>79.98</v>
+        <v>79.980000000000018</v>
       </c>
       <c r="M932" s="72">
-        <v>27.954999999999998</v>
+        <v>27.955000000000002</v>
       </c>
       <c r="N932" s="72">
-        <v>103.093</v>
+        <v>103.09300000000002</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.25">
@@ -50282,13 +50282,13 @@
         <v>30.820999999999998</v>
       </c>
       <c r="L1007" s="72">
-        <v>118.59899999999999</v>
+        <v>118.59900000000002</v>
       </c>
       <c r="M1007" s="72">
         <v>16.509999999999998</v>
       </c>
       <c r="N1007" s="72">
-        <v>149.41999999999999</v>
+        <v>149.42000000000002</v>
       </c>
     </row>
     <row r="1008" spans="1:14" x14ac:dyDescent="0.25">
@@ -50443,16 +50443,16 @@
         <v>70</v>
       </c>
       <c r="K1011" s="72">
-        <v>60.884999999999998</v>
+        <v>60.885000000000005</v>
       </c>
       <c r="L1011" s="72">
-        <v>48.290000000000013</v>
+        <v>48.289999999999992</v>
       </c>
       <c r="M1011" s="72">
         <v>4.6319999999999997</v>
       </c>
       <c r="N1011" s="72">
-        <v>109.17500000000001</v>
+        <v>109.175</v>
       </c>
     </row>
     <row r="1012" spans="1:14" x14ac:dyDescent="0.25">
@@ -50487,13 +50487,13 @@
         <v>70</v>
       </c>
       <c r="K1012" s="72">
-        <v>28.812000000000005</v>
+        <v>28.812000000000001</v>
       </c>
       <c r="L1012" s="72">
-        <v>93.277999999999992</v>
+        <v>93.278000000000006</v>
       </c>
       <c r="M1012" s="72">
-        <v>15.896999999999998</v>
+        <v>15.897000000000002</v>
       </c>
       <c r="N1012" s="72">
         <v>122.09</v>
@@ -50531,16 +50531,16 @@
         <v>70</v>
       </c>
       <c r="K1013" s="72">
-        <v>30.277000000000001</v>
+        <v>30.276999999999997</v>
       </c>
       <c r="L1013" s="72">
-        <v>82.966000000000022</v>
+        <v>82.965999999999994</v>
       </c>
       <c r="M1013" s="72">
-        <v>39.124000000000009</v>
+        <v>39.124000000000002</v>
       </c>
       <c r="N1013" s="72">
-        <v>113.24300000000002</v>
+        <v>113.24299999999999</v>
       </c>
     </row>
     <row r="1014" spans="1:14" x14ac:dyDescent="0.25">
@@ -50575,10 +50575,10 @@
         <v>70</v>
       </c>
       <c r="K1014" s="72">
-        <v>30.602999999999994</v>
+        <v>30.603000000000002</v>
       </c>
       <c r="L1014" s="72">
-        <v>43.560000000000016</v>
+        <v>43.560000000000009</v>
       </c>
       <c r="M1014" s="72">
         <v>69.683000000000007</v>
@@ -50619,16 +50619,16 @@
         <v>70</v>
       </c>
       <c r="K1015" s="72">
-        <v>25.98</v>
+        <v>25.979999999999997</v>
       </c>
       <c r="L1015" s="72">
-        <v>60.061999999999998</v>
+        <v>60.061999999999991</v>
       </c>
       <c r="M1015" s="72">
         <v>14.100999999999999</v>
       </c>
       <c r="N1015" s="72">
-        <v>86.042000000000002</v>
+        <v>86.041999999999987</v>
       </c>
     </row>
     <row r="1016" spans="1:14" x14ac:dyDescent="0.25">
@@ -50666,13 +50666,13 @@
         <v>17.482999999999997</v>
       </c>
       <c r="L1016" s="72">
-        <v>62.747000000000007</v>
+        <v>62.746999999999993</v>
       </c>
       <c r="M1016" s="72">
-        <v>23.294999999999998</v>
+        <v>23.295000000000002</v>
       </c>
       <c r="N1016" s="72">
-        <v>80.23</v>
+        <v>80.22999999999999</v>
       </c>
     </row>
     <row r="1017" spans="1:14" x14ac:dyDescent="0.25">
@@ -50827,16 +50827,16 @@
         <v>70</v>
       </c>
       <c r="K1020" s="72">
-        <v>57.059000000000012</v>
+        <v>57.058999999999997</v>
       </c>
       <c r="L1020" s="72">
-        <v>45.748000000000005</v>
+        <v>45.74799999999999</v>
       </c>
       <c r="M1020" s="72">
         <v>4.4619999999999997</v>
       </c>
       <c r="N1020" s="72">
-        <v>102.80700000000002</v>
+        <v>102.80699999999999</v>
       </c>
     </row>
     <row r="1021" spans="1:14" x14ac:dyDescent="0.25">
@@ -50871,7 +50871,7 @@
         <v>70</v>
       </c>
       <c r="K1021" s="72">
-        <v>30.575000000000003</v>
+        <v>30.574999999999999</v>
       </c>
       <c r="L1021" s="72">
         <v>78.722999999999999</v>
@@ -50921,7 +50921,7 @@
         <v>73.816999999999979</v>
       </c>
       <c r="M1022" s="72">
-        <v>35.481000000000002</v>
+        <v>35.480999999999995</v>
       </c>
       <c r="N1022" s="72">
         <v>103.10499999999999</v>
@@ -51003,13 +51003,13 @@
         <v>70</v>
       </c>
       <c r="K1024" s="72">
-        <v>22.526</v>
+        <v>22.525999999999996</v>
       </c>
       <c r="L1024" s="72">
         <v>47.501999999999995</v>
       </c>
       <c r="M1024" s="72">
-        <v>13.339</v>
+        <v>13.339000000000002</v>
       </c>
       <c r="N1024" s="72">
         <v>70.027999999999992</v>
@@ -51167,7 +51167,7 @@
         <v>70</v>
       </c>
       <c r="K1028" s="72">
-        <v>48.556000000000004</v>
+        <v>48.555999999999997</v>
       </c>
       <c r="L1028" s="72">
         <v>0</v>
@@ -51176,7 +51176,7 @@
         <v>0</v>
       </c>
       <c r="N1028" s="72">
-        <v>48.556000000000004</v>
+        <v>48.555999999999997</v>
       </c>
     </row>
     <row r="1029" spans="1:14" x14ac:dyDescent="0.25">
@@ -54535,7 +54535,7 @@
         <v>70</v>
       </c>
       <c r="K1107" s="72">
-        <v>14.08</v>
+        <v>14.080000000000002</v>
       </c>
       <c r="L1107" s="72">
         <v>78.222999999999999</v>
@@ -54655,7 +54655,7 @@
         <v>70</v>
       </c>
       <c r="K1110" s="72">
-        <v>85.296000000000006</v>
+        <v>85.295999999999992</v>
       </c>
       <c r="L1110" s="72">
         <v>0</v>
@@ -54664,7 +54664,7 @@
         <v>0</v>
       </c>
       <c r="N1110" s="72">
-        <v>85.296000000000006</v>
+        <v>85.295999999999992</v>
       </c>
     </row>
     <row r="1111" spans="1:14" x14ac:dyDescent="0.25">
@@ -54702,13 +54702,13 @@
         <v>19.341000000000001</v>
       </c>
       <c r="L1111" s="72">
-        <v>77.994999999999976</v>
+        <v>77.995000000000005</v>
       </c>
       <c r="M1111" s="72">
         <v>7.3010000000000002</v>
       </c>
       <c r="N1111" s="72">
-        <v>97.335999999999984</v>
+        <v>97.335999999999999</v>
       </c>
     </row>
     <row r="1112" spans="1:14" x14ac:dyDescent="0.25">
@@ -54749,7 +54749,7 @@
         <v>65.616000000000014</v>
       </c>
       <c r="M1112" s="72">
-        <v>31.72</v>
+        <v>31.720000000000002</v>
       </c>
       <c r="N1112" s="72">
         <v>76.371000000000009</v>
@@ -56943,7 +56943,7 @@
         <v>70</v>
       </c>
       <c r="K1165" s="72">
-        <v>20.227</v>
+        <v>20.227000000000004</v>
       </c>
       <c r="L1165" s="72">
         <v>0</v>
@@ -56952,7 +56952,7 @@
         <v>0</v>
       </c>
       <c r="N1165" s="72">
-        <v>20.227</v>
+        <v>20.227000000000004</v>
       </c>
     </row>
     <row r="1166" spans="1:14" x14ac:dyDescent="0.25">
@@ -56996,7 +56996,7 @@
         <v>2.242</v>
       </c>
       <c r="N1166" s="72">
-        <v>22.988999999999997</v>
+        <v>22.989000000000001</v>
       </c>
     </row>
     <row r="1167" spans="1:14" x14ac:dyDescent="0.25">
@@ -57034,13 +57034,13 @@
         <v>4.0780000000000003</v>
       </c>
       <c r="L1167" s="72">
-        <v>11.240000000000002</v>
+        <v>11.239999999999998</v>
       </c>
       <c r="M1167" s="72">
-        <v>11.749000000000001</v>
+        <v>11.748999999999999</v>
       </c>
       <c r="N1167" s="72">
-        <v>15.318000000000001</v>
+        <v>15.318</v>
       </c>
     </row>
     <row r="1168" spans="1:14" x14ac:dyDescent="0.25">
@@ -57081,7 +57081,7 @@
         <v>0</v>
       </c>
       <c r="M1168" s="72">
-        <v>15.318000000000001</v>
+        <v>15.318</v>
       </c>
       <c r="N1168" s="72">
         <v>1.7570000000000001</v>
@@ -61566,13 +61566,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13924999999995</v>
+        <v>258.13925</v>
       </c>
       <c r="H6" s="72">
         <v>350</v>
       </c>
       <c r="I6" s="76">
-        <v>0.73754071428571411</v>
+        <v>0.73754071428571433</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -61595,13 +61595,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000001</v>
+        <v>46.930250000000008</v>
       </c>
       <c r="H7" s="72">
         <v>350</v>
       </c>
       <c r="I7" s="76">
-        <v>0.13408642857142858</v>
+        <v>0.13408642857142861</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -61682,13 +61682,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999986</v>
+        <v>296.44324999999992</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84698071428571386</v>
+        <v>0.84698071428571409</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61711,13 +61711,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000007</v>
+        <v>76.064000000000021</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571432</v>
+        <v>0.21732571428571434</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -61798,7 +61798,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>80.989749999999987</v>
+        <v>80.989750000000001</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
@@ -61827,13 +61827,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20675000000003</v>
+        <v>103.20675000000001</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857165</v>
+        <v>0.73719107142857154</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -61856,13 +61856,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61849999999987</v>
+        <v>418.61849999999981</v>
       </c>
       <c r="H16" s="72">
         <v>490</v>
       </c>
       <c r="I16" s="76">
-        <v>0.85432346938775483</v>
+        <v>0.85432346938775472</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -61885,13 +61885,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.18150000000003</v>
+        <v>156.1815</v>
       </c>
       <c r="H17" s="72">
         <v>490</v>
       </c>
       <c r="I17" s="76">
-        <v>0.31873775510204089</v>
+        <v>0.31873775510204083</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -62088,13 +62088,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135749999999987</v>
+        <v>61.135750000000009</v>
       </c>
       <c r="H24" s="72">
         <v>210</v>
       </c>
       <c r="I24" s="76">
-        <v>0.29112261904761899</v>
+        <v>0.2911226190476191</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62117,13 +62117,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000018</v>
+        <v>43.853500000000004</v>
       </c>
       <c r="H25" s="72">
         <v>210</v>
       </c>
       <c r="I25" s="76">
-        <v>0.20882619047619055</v>
+        <v>0.2088261904761905</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -62204,13 +62204,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>178.53649999999999</v>
+        <v>178.53650000000005</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.8501738095238095</v>
+        <v>0.85017380952380972</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -62233,7 +62233,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>126.28975000000004</v>
+        <v>126.28975000000003</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
@@ -62320,13 +62320,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>121.27874999999996</v>
+        <v>121.27874999999999</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.57751785714285697</v>
+        <v>0.57751785714285708</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -62349,13 +62349,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43350000000004</v>
+        <v>175.43349999999995</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.83539761904761922</v>
+        <v>0.83539761904761878</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -62378,13 +62378,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>724.85199999999952</v>
+        <v>724.85199999999986</v>
       </c>
       <c r="H34" s="72">
         <v>910</v>
       </c>
       <c r="I34" s="76">
-        <v>0.79654065934065876</v>
+        <v>0.79654065934065921</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62407,13 +62407,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>304.2177499999998</v>
+        <v>304.21774999999991</v>
       </c>
       <c r="H35" s="72">
         <v>910</v>
       </c>
       <c r="I35" s="76">
-        <v>0.33430521978021954</v>
+        <v>0.33430521978021971</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62436,13 +62436,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.74349999999999</v>
+        <v>43.743500000000004</v>
       </c>
       <c r="H36" s="72">
         <v>210</v>
       </c>
       <c r="I36" s="76">
-        <v>0.20830238095238091</v>
+        <v>0.20830238095238096</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62465,13 +62465,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.180749999999996</v>
+        <v>59.180749999999989</v>
       </c>
       <c r="H37" s="72">
         <v>210</v>
       </c>
       <c r="I37" s="76">
-        <v>0.28181309523809522</v>
+        <v>0.28181309523809517</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -62610,13 +62610,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462500000000034</v>
+        <v>64.462499999999991</v>
       </c>
       <c r="H42" s="72">
         <v>210</v>
       </c>
       <c r="I42" s="76">
-        <v>0.30696428571428586</v>
+        <v>0.30696428571428569</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62639,13 +62639,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313249999999996</v>
+        <v>38.313250000000004</v>
       </c>
       <c r="H43" s="72">
         <v>210</v>
       </c>
       <c r="I43" s="76">
-        <v>0.18244404761904759</v>
+        <v>0.18244404761904764</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -62726,13 +62726,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>124.24325000000006</v>
+        <v>124.24325000000003</v>
       </c>
       <c r="H46" s="72">
         <v>210</v>
       </c>
       <c r="I46" s="76">
-        <v>0.59163452380952408</v>
+        <v>0.59163452380952397</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62755,13 +62755,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>114.32925000000004</v>
+        <v>114.32925000000006</v>
       </c>
       <c r="H47" s="72">
         <v>210</v>
       </c>
       <c r="I47" s="76">
-        <v>0.54442500000000016</v>
+        <v>0.54442500000000027</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62842,13 +62842,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49675000000006</v>
+        <v>124.49675000000002</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.59284166666666693</v>
+        <v>0.59284166666666671</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -62871,13 +62871,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66499999999985</v>
+        <v>188.66499999999999</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476115</v>
+        <v>0.89840476190476182</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -62900,13 +62900,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>413.3847499999996</v>
+        <v>413.38474999999994</v>
       </c>
       <c r="H52" s="72">
         <v>770</v>
       </c>
       <c r="I52" s="76">
-        <v>0.53686331168831114</v>
+        <v>0.53686331168831158</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -62929,13 +62929,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>525.06874999999957</v>
+        <v>525.06874999999945</v>
       </c>
       <c r="H53" s="72">
         <v>770</v>
       </c>
       <c r="I53" s="76">
-        <v>0.681907467532467</v>
+        <v>0.68190746753246678</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -62958,13 +62958,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967249999999993</v>
+        <v>43.967249999999986</v>
       </c>
       <c r="H54" s="72">
         <v>210</v>
       </c>
       <c r="I54" s="76">
-        <v>0.20936785714285711</v>
+        <v>0.20936785714285708</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -62987,13 +62987,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000004</v>
+        <v>63.393750000000026</v>
       </c>
       <c r="H55" s="72">
         <v>210</v>
       </c>
       <c r="I55" s="76">
-        <v>0.301875</v>
+        <v>0.30187500000000012</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -63132,13 +63132,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.991000000000028</v>
+        <v>62.990999999999957</v>
       </c>
       <c r="H60" s="72">
         <v>210</v>
       </c>
       <c r="I60" s="76">
-        <v>0.29995714285714298</v>
+        <v>0.29995714285714264</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63161,13 +63161,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>42.273750000000021</v>
+        <v>42.273750000000007</v>
       </c>
       <c r="H61" s="72">
         <v>210</v>
       </c>
       <c r="I61" s="76">
-        <v>0.20130357142857153</v>
+        <v>0.20130357142857147</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -63248,13 +63248,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>183.98975000000007</v>
+        <v>183.98974999999996</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.87614166666666704</v>
+        <v>0.87614166666666649</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63277,13 +63277,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>120.04725000000005</v>
+        <v>120.04725000000002</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.57165357142857165</v>
+        <v>0.57165357142857154</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63364,13 +63364,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.22175000000004</v>
+        <v>128.22174999999999</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476215</v>
+        <v>0.61057976190476182</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -63393,13 +63393,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96599999999992</v>
+        <v>166.96600000000004</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.79507619047619016</v>
+        <v>0.7950761904761906</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -63422,13 +63422,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>263.18925000000013</v>
+        <v>263.18925000000007</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.75196928571428612</v>
+        <v>0.7519692857142859</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63480,13 +63480,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395249999999997</v>
+        <v>45.395250000000011</v>
       </c>
       <c r="H72" s="72">
         <v>210</v>
       </c>
       <c r="I72" s="76">
-        <v>0.21616785714285713</v>
+        <v>0.21616785714285719</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -63654,13 +63654,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477749999999993</v>
+        <v>54.47775</v>
       </c>
       <c r="H78" s="72">
         <v>140</v>
       </c>
       <c r="I78" s="76">
-        <v>0.38912678571428566</v>
+        <v>0.38912678571428572</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63683,13 +63683,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.89</v>
+        <v>35.890000000000008</v>
       </c>
       <c r="H79" s="72">
         <v>140</v>
       </c>
       <c r="I79" s="76">
-        <v>0.25635714285714284</v>
+        <v>0.25635714285714289</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -63741,13 +63741,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546750000000017</v>
+        <v>71.546749999999989</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571445</v>
+        <v>0.51104821428571423</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -63770,13 +63770,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11725000000001</v>
+        <v>192.11724999999998</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.9148440476190477</v>
+        <v>0.91484404761904758</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -63799,13 +63799,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186750000000004</v>
+        <v>86.186750000000032</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.41041309523809527</v>
+        <v>0.41041309523809538</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -63828,13 +63828,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125</v>
+        <v>168.25125000000003</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142859</v>
+        <v>0.8011964285714287</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -63857,13 +63857,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000007</v>
+        <v>40.552000000000035</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476195</v>
+        <v>0.19310476190476208</v>
       </c>
     </row>
   </sheetData>
